--- a/INTLINE/data/142/STANOR/07095 Index of production by Industry.xlsx
+++ b/INTLINE/data/142/STANOR/07095 Index of production by Industry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <x:si>
     <x:t>07095: Index of production (2005=100), by industry/main industrial grouping, contents and month</x:t>
   </x:si>
@@ -994,6 +994,15 @@
     <x:t>2022M01</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
     <x:t>Extraction of crude petroleum</x:t>
   </x:si>
   <x:si>
@@ -1090,7 +1099,7 @@
     <x:t>Index of production. Seasonally adjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220307 08:00</x:t>
+    <x:t>20220608 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Calendar adjusted:</x:t>
@@ -1553,21 +1562,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:LO137"/>
+  <x:dimension ref="A1:LR137"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="327" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="330" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:327">
+    <x:row r="1" spans="1:330">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:327">
+    <x:row r="3" spans="1:330">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2543,13 +2552,22 @@
       <x:c r="LO3" s="2" t="s">
         <x:v>325</x:v>
       </x:c>
+      <x:c r="LP3" s="2" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="LQ3" s="2" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="LR3" s="2" t="s">
+        <x:v>328</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:327">
+    <x:row r="4" spans="1:330">
       <x:c r="A4" s="2" t="s">
-        <x:v>326</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>114.6</x:v>
@@ -3422,16 +3440,16 @@
         <x:v>44.1</x:v>
       </x:c>
       <x:c r="KG4" s="3" t="n">
-        <x:v>44.5</x:v>
+        <x:v>44.4</x:v>
       </x:c>
       <x:c r="KH4" s="3" t="n">
-        <x:v>43.6</x:v>
+        <x:v>43.7</x:v>
       </x:c>
       <x:c r="KI4" s="3" t="n">
         <x:v>43.2</x:v>
       </x:c>
       <x:c r="KJ4" s="3" t="n">
-        <x:v>36.6</x:v>
+        <x:v>36.7</x:v>
       </x:c>
       <x:c r="KK4" s="3" t="n">
         <x:v>44.4</x:v>
@@ -3440,34 +3458,34 @@
         <x:v>45.6</x:v>
       </x:c>
       <x:c r="KM4" s="3" t="n">
-        <x:v>47.6</x:v>
+        <x:v>47.5</x:v>
       </x:c>
       <x:c r="KN4" s="3" t="n">
-        <x:v>49.1</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="KO4" s="3" t="n">
         <x:v>52.5</x:v>
       </x:c>
       <x:c r="KP4" s="3" t="n">
-        <x:v>54.1</x:v>
+        <x:v>54.2</x:v>
       </x:c>
       <x:c r="KQ4" s="3" t="n">
-        <x:v>53.4</x:v>
+        <x:v>53.5</x:v>
       </x:c>
       <x:c r="KR4" s="3" t="n">
-        <x:v>57.3</x:v>
+        <x:v>57.2</x:v>
       </x:c>
       <x:c r="KS4" s="3" t="n">
-        <x:v>57</x:v>
+        <x:v>56.7</x:v>
       </x:c>
       <x:c r="KT4" s="3" t="n">
-        <x:v>60</x:v>
+        <x:v>60.2</x:v>
       </x:c>
       <x:c r="KU4" s="3" t="n">
-        <x:v>62.8</x:v>
+        <x:v>62.9</x:v>
       </x:c>
       <x:c r="KV4" s="3" t="n">
-        <x:v>55.8</x:v>
+        <x:v>55.9</x:v>
       </x:c>
       <x:c r="KW4" s="3" t="n">
         <x:v>59.5</x:v>
@@ -3479,43 +3497,43 @@
         <x:v>56.4</x:v>
       </x:c>
       <x:c r="KZ4" s="3" t="n">
-        <x:v>54.7</x:v>
+        <x:v>54.6</x:v>
       </x:c>
       <x:c r="LA4" s="3" t="n">
         <x:v>56.3</x:v>
       </x:c>
       <x:c r="LB4" s="3" t="n">
-        <x:v>57.9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="LC4" s="3" t="n">
-        <x:v>57.9</x:v>
+        <x:v>58.1</x:v>
       </x:c>
       <x:c r="LD4" s="3" t="n">
-        <x:v>58.6</x:v>
+        <x:v>58.5</x:v>
       </x:c>
       <x:c r="LE4" s="3" t="n">
-        <x:v>58.9</x:v>
+        <x:v>58.5</x:v>
       </x:c>
       <x:c r="LF4" s="3" t="n">
-        <x:v>57.7</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="LG4" s="3" t="n">
-        <x:v>59.5</x:v>
+        <x:v>59.6</x:v>
       </x:c>
       <x:c r="LH4" s="3" t="n">
-        <x:v>60.3</x:v>
+        <x:v>60.4</x:v>
       </x:c>
       <x:c r="LI4" s="3" t="n">
         <x:v>59.9</x:v>
       </x:c>
       <x:c r="LJ4" s="3" t="n">
-        <x:v>64.1</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="LK4" s="3" t="n">
         <x:v>67.8</x:v>
       </x:c>
       <x:c r="LL4" s="3" t="n">
-        <x:v>61.2</x:v>
+        <x:v>61.1</x:v>
       </x:c>
       <x:c r="LM4" s="3" t="n">
         <x:v>55.9</x:v>
@@ -3524,12 +3542,21 @@
         <x:v>58.6</x:v>
       </x:c>
       <x:c r="LO4" s="3" t="n">
-        <x:v>55.7</x:v>
+        <x:v>55.9</x:v>
+      </x:c>
+      <x:c r="LP4" s="3" t="n">
+        <x:v>56.9</x:v>
+      </x:c>
+      <x:c r="LQ4" s="3" t="n">
+        <x:v>57.4</x:v>
+      </x:c>
+      <x:c r="LR4" s="3" t="n">
+        <x:v>56.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:327">
+    <x:row r="5" spans="1:330">
       <x:c r="B5" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>119</x:v>
@@ -4506,10 +4533,19 @@
       <x:c r="LO5" s="3" t="n">
         <x:v>59.8</x:v>
       </x:c>
+      <x:c r="LP5" s="3" t="n">
+        <x:v>55.1</x:v>
+      </x:c>
+      <x:c r="LQ5" s="3" t="n">
+        <x:v>60.2</x:v>
+      </x:c>
+      <x:c r="LR5" s="3" t="n">
+        <x:v>55.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:327">
+    <x:row r="6" spans="1:330">
       <x:c r="B6" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>118.9</x:v>
@@ -5486,13 +5522,22 @@
       <x:c r="LO6" s="3" t="n">
         <x:v>59.8</x:v>
       </x:c>
+      <x:c r="LP6" s="3" t="n">
+        <x:v>54.4</x:v>
+      </x:c>
+      <x:c r="LQ6" s="3" t="n">
+        <x:v>60.2</x:v>
+      </x:c>
+      <x:c r="LR6" s="3" t="n">
+        <x:v>55.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:327">
+    <x:row r="7" spans="1:330">
       <x:c r="A7" s="2" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>327</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>43</x:v>
@@ -6365,10 +6410,10 @@
         <x:v>107.9</x:v>
       </x:c>
       <x:c r="KG7" s="3" t="n">
-        <x:v>104.8</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="KH7" s="3" t="n">
-        <x:v>106.6</x:v>
+        <x:v>106.4</x:v>
       </x:c>
       <x:c r="KI7" s="3" t="n">
         <x:v>106.4</x:v>
@@ -6380,7 +6425,7 @@
         <x:v>101.1</x:v>
       </x:c>
       <x:c r="KL7" s="3" t="n">
-        <x:v>94.9</x:v>
+        <x:v>94.8</x:v>
       </x:c>
       <x:c r="KM7" s="3" t="n">
         <x:v>76.4</x:v>
@@ -6401,10 +6446,10 @@
         <x:v>99.8</x:v>
       </x:c>
       <x:c r="KS7" s="3" t="n">
-        <x:v>104.3</x:v>
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="KT7" s="3" t="n">
-        <x:v>97.3</x:v>
+        <x:v>96.9</x:v>
       </x:c>
       <x:c r="KU7" s="3" t="n">
         <x:v>91.6</x:v>
@@ -6437,10 +6482,10 @@
         <x:v>93.4</x:v>
       </x:c>
       <x:c r="LE7" s="3" t="n">
-        <x:v>95.3</x:v>
+        <x:v>95.7</x:v>
       </x:c>
       <x:c r="LF7" s="3" t="n">
-        <x:v>96.4</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="LG7" s="3" t="n">
         <x:v>91.7</x:v>
@@ -6455,7 +6500,7 @@
         <x:v>108.2</x:v>
       </x:c>
       <x:c r="LK7" s="3" t="n">
-        <x:v>105.6</x:v>
+        <x:v>105.5</x:v>
       </x:c>
       <x:c r="LL7" s="3" t="n">
         <x:v>103</x:v>
@@ -6467,12 +6512,21 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="LO7" s="3" t="n">
-        <x:v>96.4</x:v>
+        <x:v>96.5</x:v>
+      </x:c>
+      <x:c r="LP7" s="3" t="n">
+        <x:v>97.4</x:v>
+      </x:c>
+      <x:c r="LQ7" s="3" t="n">
+        <x:v>97.6</x:v>
+      </x:c>
+      <x:c r="LR7" s="3" t="n">
+        <x:v>98.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:327">
+    <x:row r="8" spans="1:330">
       <x:c r="B8" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>45.2</x:v>
@@ -7449,10 +7503,19 @@
       <x:c r="LO8" s="3" t="n">
         <x:v>107.4</x:v>
       </x:c>
+      <x:c r="LP8" s="3" t="n">
+        <x:v>99.3</x:v>
+      </x:c>
+      <x:c r="LQ8" s="3" t="n">
+        <x:v>105.5</x:v>
+      </x:c>
+      <x:c r="LR8" s="3" t="n">
+        <x:v>99.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:327">
+    <x:row r="9" spans="1:330">
       <x:c r="B9" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>44.8</x:v>
@@ -8429,553 +8492,562 @@
       <x:c r="LO9" s="3" t="n">
         <x:v>107.4</x:v>
       </x:c>
+      <x:c r="LP9" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="LQ9" s="3" t="n">
+        <x:v>105.5</x:v>
+      </x:c>
+      <x:c r="LR9" s="3" t="n">
+        <x:v>99.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:327">
+    <x:row r="10" spans="1:330">
       <x:c r="A10" s="2" t="s">
-        <x:v>331</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="K10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="L10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="M10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="N10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="O10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="P10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Q10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="R10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="S10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="T10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="U10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="V10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="W10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="X10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Y10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Z10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AA10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AB10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AC10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AD10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AE10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AF10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AG10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AH10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AI10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AJ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AK10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AL10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AM10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AN10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AO10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AP10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AQ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AR10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AS10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AT10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AU10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AV10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AW10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AX10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AY10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AZ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BA10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BB10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BC10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BD10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BE10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BF10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BG10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BH10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BI10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BJ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BK10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BL10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BM10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BN10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BO10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BP10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BQ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BR10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BS10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BT10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BU10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BV10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BW10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BX10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BY10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BZ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CA10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CB10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CC10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CD10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CE10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CF10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CI10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CJ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CK10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CL10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CM10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CN10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CO10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CP10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CQ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CR10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CS10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CT10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CU10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CV10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CW10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CX10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CY10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CZ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DA10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DB10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DC10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DD10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DE10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DF10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DG10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DH10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DI10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DJ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DK10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DL10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DM10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DN10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DO10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DP10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DQ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DR10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DS10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DT10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DU10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DV10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DW10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DX10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DY10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DZ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EA10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EB10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EC10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ED10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EE10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EF10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EG10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EH10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EI10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EJ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EK10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EL10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EM10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EN10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EO10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EP10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EQ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ER10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ES10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ET10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EU10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EV10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EW10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EX10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EY10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EZ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FA10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FB10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FC10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FD10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FE10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FF10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FG10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FH10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FI10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FJ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FK10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FL10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FM10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FN10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FO10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FP10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FQ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FR10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FS10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FT10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FU10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FV10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FW10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FX10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FY10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FZ10" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="GA10" s="3" t="n">
         <x:v>134.1</x:v>
@@ -9302,64 +9374,64 @@
         <x:v>134.7</x:v>
       </x:c>
       <x:c r="KE10" s="3" t="n">
-        <x:v>142</x:v>
+        <x:v>141.9</x:v>
       </x:c>
       <x:c r="KF10" s="3" t="n">
-        <x:v>142.8</x:v>
+        <x:v>142.9</x:v>
       </x:c>
       <x:c r="KG10" s="3" t="n">
-        <x:v>143.5</x:v>
+        <x:v>142.5</x:v>
       </x:c>
       <x:c r="KH10" s="3" t="n">
-        <x:v>143.4</x:v>
+        <x:v>144.4</x:v>
       </x:c>
       <x:c r="KI10" s="3" t="n">
-        <x:v>146.8</x:v>
+        <x:v>146.6</x:v>
       </x:c>
       <x:c r="KJ10" s="3" t="n">
-        <x:v>144.2</x:v>
+        <x:v>144.4</x:v>
       </x:c>
       <x:c r="KK10" s="3" t="n">
-        <x:v>150.6</x:v>
+        <x:v>150.7</x:v>
       </x:c>
       <x:c r="KL10" s="3" t="n">
-        <x:v>148</x:v>
+        <x:v>148.2</x:v>
       </x:c>
       <x:c r="KM10" s="3" t="n">
         <x:v>153.4</x:v>
       </x:c>
       <x:c r="KN10" s="3" t="n">
-        <x:v>154.7</x:v>
+        <x:v>154.8</x:v>
       </x:c>
       <x:c r="KO10" s="3" t="n">
         <x:v>153</x:v>
       </x:c>
       <x:c r="KP10" s="3" t="n">
-        <x:v>155.2</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="KQ10" s="3" t="n">
-        <x:v>156.9</x:v>
+        <x:v>156.8</x:v>
       </x:c>
       <x:c r="KR10" s="3" t="n">
-        <x:v>159.3</x:v>
+        <x:v>159.5</x:v>
       </x:c>
       <x:c r="KS10" s="3" t="n">
-        <x:v>150.5</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="KT10" s="3" t="n">
-        <x:v>136.5</x:v>
+        <x:v>137.9</x:v>
       </x:c>
       <x:c r="KU10" s="3" t="n">
-        <x:v>129.2</x:v>
+        <x:v>128.9</x:v>
       </x:c>
       <x:c r="KV10" s="3" t="n">
-        <x:v>133.3</x:v>
+        <x:v>133.6</x:v>
       </x:c>
       <x:c r="KW10" s="3" t="n">
-        <x:v>133.3</x:v>
+        <x:v>133.4</x:v>
       </x:c>
       <x:c r="KX10" s="3" t="n">
-        <x:v>136.6</x:v>
+        <x:v>136.7</x:v>
       </x:c>
       <x:c r="KY10" s="3" t="n">
         <x:v>142.8</x:v>
@@ -9371,591 +9443,600 @@
         <x:v>143.4</x:v>
       </x:c>
       <x:c r="LB10" s="3" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="LC10" s="3" t="n">
+        <x:v>145.6</x:v>
+      </x:c>
+      <x:c r="LD10" s="3" t="n">
         <x:v>149.2</x:v>
       </x:c>
-      <x:c r="LC10" s="3" t="n">
-        <x:v>145.8</x:v>
-      </x:c>
-      <x:c r="LD10" s="3" t="n">
-        <x:v>148.8</x:v>
-      </x:c>
       <x:c r="LE10" s="3" t="n">
-        <x:v>152.3</x:v>
+        <x:v>150.3</x:v>
       </x:c>
       <x:c r="LF10" s="3" t="n">
-        <x:v>151.4</x:v>
+        <x:v>153.5</x:v>
       </x:c>
       <x:c r="LG10" s="3" t="n">
-        <x:v>143.5</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="LH10" s="3" t="n">
-        <x:v>150</x:v>
+        <x:v>150.2</x:v>
       </x:c>
       <x:c r="LI10" s="3" t="n">
-        <x:v>142.8</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="LJ10" s="3" t="n">
-        <x:v>145.6</x:v>
+        <x:v>145.7</x:v>
       </x:c>
       <x:c r="LK10" s="3" t="n">
-        <x:v>150.6</x:v>
+        <x:v>150.7</x:v>
       </x:c>
       <x:c r="LL10" s="3" t="n">
         <x:v>144.3</x:v>
       </x:c>
       <x:c r="LM10" s="3" t="n">
-        <x:v>151.7</x:v>
+        <x:v>151.6</x:v>
       </x:c>
       <x:c r="LN10" s="3" t="n">
-        <x:v>157.5</x:v>
+        <x:v>157.2</x:v>
       </x:c>
       <x:c r="LO10" s="3" t="n">
-        <x:v>155.2</x:v>
+        <x:v>154.9</x:v>
+      </x:c>
+      <x:c r="LP10" s="3" t="n">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="LQ10" s="3" t="n">
+        <x:v>159.9</x:v>
+      </x:c>
+      <x:c r="LR10" s="3" t="n">
+        <x:v>155.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:327">
+    <x:row r="11" spans="1:330">
       <x:c r="B11" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="J11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="K11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="L11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="M11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="N11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="O11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="P11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Q11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="R11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="S11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="T11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="U11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="V11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="W11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="X11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Y11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Z11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AA11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AB11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AC11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AD11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AE11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AF11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AG11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AH11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AI11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AJ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AK11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AL11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AM11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AN11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AO11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AP11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AQ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AR11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AS11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AT11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AU11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AV11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AW11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AX11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AY11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AZ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BA11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BB11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BC11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BD11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BE11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BF11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BG11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BH11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BI11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BJ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BK11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BL11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BM11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BN11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BO11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BP11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BQ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BR11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BS11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BT11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BU11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BV11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BW11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BX11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BY11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BZ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CA11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CB11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CC11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CD11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CE11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CF11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CG11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CH11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CI11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CJ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CK11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CL11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CM11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CN11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CO11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CP11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CQ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CR11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CS11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CT11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CU11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CV11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CW11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CX11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CY11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CZ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DA11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DB11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DC11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DD11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DE11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DF11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DG11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DH11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DI11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DJ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DK11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DL11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DM11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DN11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DO11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DP11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DQ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DR11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DS11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DT11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DU11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DV11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DW11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DX11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DY11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DZ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EA11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EB11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EC11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ED11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EE11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EF11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EG11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EH11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EI11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EJ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EK11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EL11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EM11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EN11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EO11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EP11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EQ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ER11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ES11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ET11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EU11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EV11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EW11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EX11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EY11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EZ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FA11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FB11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FC11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FD11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FE11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FF11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FG11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FH11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FI11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FJ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FK11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FL11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FM11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FN11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FO11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FP11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FQ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FR11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FS11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FT11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FU11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FV11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FW11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FX11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FY11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FZ11" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="GA11" s="3" t="n">
         <x:v>132.1</x:v>
@@ -10392,550 +10473,559 @@
       <x:c r="LO11" s="3" t="n">
         <x:v>152.3</x:v>
       </x:c>
+      <x:c r="LP11" s="3" t="n">
+        <x:v>149.9</x:v>
+      </x:c>
+      <x:c r="LQ11" s="3" t="n">
+        <x:v>162.3</x:v>
+      </x:c>
+      <x:c r="LR11" s="3" t="n">
+        <x:v>148</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:327">
+    <x:row r="12" spans="1:330">
       <x:c r="B12" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="H12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="J12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="K12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="L12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="M12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="N12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="O12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="P12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Q12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="R12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="S12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="T12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="U12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="V12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="W12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="X12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Y12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="Z12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AA12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AB12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AC12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AD12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AE12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AF12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AG12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AH12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AI12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AJ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AK12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AL12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AM12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AN12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AO12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AP12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AQ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AR12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AS12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AT12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AU12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AV12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AW12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AX12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AY12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="AZ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BA12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BB12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BC12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BD12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BE12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BF12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BG12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BH12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BI12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BJ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BK12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BL12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BM12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BN12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BO12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BP12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BQ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BR12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BS12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BT12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BU12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BV12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BW12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BX12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BY12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="BZ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CA12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CB12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CC12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CD12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CE12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CF12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CG12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CH12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CI12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CJ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CK12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CL12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CM12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CN12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CO12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CP12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CQ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CR12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CS12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CT12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CU12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CV12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CW12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CX12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CY12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="CZ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DA12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DB12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DC12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DD12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DE12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DF12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DG12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DH12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DI12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DJ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DK12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DL12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DM12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DN12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DO12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DP12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DQ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DR12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DS12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DT12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DU12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DV12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DW12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DX12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DY12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="DZ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EA12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EB12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EC12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ED12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EE12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EF12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EG12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EH12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EI12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EJ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EK12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EL12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EM12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EN12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EO12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EP12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EQ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ER12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ES12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="ET12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EU12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EV12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EW12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EX12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EY12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="EZ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FA12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FB12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FC12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FD12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FE12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FF12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FG12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FH12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FI12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FJ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FK12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FL12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FM12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FN12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FO12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FP12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FQ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FR12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FS12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FT12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FU12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FV12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FW12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FX12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FY12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="FZ12" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="GA12" s="3" t="n">
         <x:v>132.1</x:v>
@@ -11372,13 +11462,22 @@
       <x:c r="LO12" s="3" t="n">
         <x:v>152.3</x:v>
       </x:c>
+      <x:c r="LP12" s="3" t="n">
+        <x:v>149.9</x:v>
+      </x:c>
+      <x:c r="LQ12" s="3" t="n">
+        <x:v>162.3</x:v>
+      </x:c>
+      <x:c r="LR12" s="3" t="n">
+        <x:v>148</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:327">
+    <x:row r="13" spans="1:330">
       <x:c r="A13" s="2" t="s">
-        <x:v>333</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>113</x:v>
@@ -12251,13 +12350,13 @@
         <x:v>104.9</x:v>
       </x:c>
       <x:c r="KG13" s="3" t="n">
-        <x:v>101.7</x:v>
+        <x:v>101.5</x:v>
       </x:c>
       <x:c r="KH13" s="3" t="n">
-        <x:v>104.9</x:v>
+        <x:v>105.1</x:v>
       </x:c>
       <x:c r="KI13" s="3" t="n">
-        <x:v>105.1</x:v>
+        <x:v>105.2</x:v>
       </x:c>
       <x:c r="KJ13" s="3" t="n">
         <x:v>104.6</x:v>
@@ -12287,13 +12386,13 @@
         <x:v>103.5</x:v>
       </x:c>
       <x:c r="KS13" s="3" t="n">
-        <x:v>108</x:v>
+        <x:v>107.6</x:v>
       </x:c>
       <x:c r="KT13" s="3" t="n">
-        <x:v>107.1</x:v>
+        <x:v>107.4</x:v>
       </x:c>
       <x:c r="KU13" s="3" t="n">
-        <x:v>107.8</x:v>
+        <x:v>107.9</x:v>
       </x:c>
       <x:c r="KV13" s="3" t="n">
         <x:v>104.5</x:v>
@@ -12305,7 +12404,7 @@
         <x:v>107.5</x:v>
       </x:c>
       <x:c r="KY13" s="3" t="n">
-        <x:v>106.8</x:v>
+        <x:v>106.9</x:v>
       </x:c>
       <x:c r="KZ13" s="3" t="n">
         <x:v>107.6</x:v>
@@ -12320,16 +12419,16 @@
         <x:v>115.3</x:v>
       </x:c>
       <x:c r="LD13" s="3" t="n">
-        <x:v>113.2</x:v>
+        <x:v>113.1</x:v>
       </x:c>
       <x:c r="LE13" s="3" t="n">
-        <x:v>113.9</x:v>
+        <x:v>113.4</x:v>
       </x:c>
       <x:c r="LF13" s="3" t="n">
-        <x:v>114.3</x:v>
+        <x:v>114.8</x:v>
       </x:c>
       <x:c r="LG13" s="3" t="n">
-        <x:v>111.1</x:v>
+        <x:v>111.2</x:v>
       </x:c>
       <x:c r="LH13" s="3" t="n">
         <x:v>111.3</x:v>
@@ -12344,7 +12443,7 @@
         <x:v>115.9</x:v>
       </x:c>
       <x:c r="LL13" s="3" t="n">
-        <x:v>106.8</x:v>
+        <x:v>106.9</x:v>
       </x:c>
       <x:c r="LM13" s="3" t="n">
         <x:v>107.2</x:v>
@@ -12355,10 +12454,19 @@
       <x:c r="LO13" s="3" t="n">
         <x:v>108.6</x:v>
       </x:c>
+      <x:c r="LP13" s="3" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="LQ13" s="3" t="n">
+        <x:v>108.4</x:v>
+      </x:c>
+      <x:c r="LR13" s="3" t="n">
+        <x:v>107.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:327">
+    <x:row r="14" spans="1:330">
       <x:c r="B14" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>103.4</x:v>
@@ -13273,10 +13381,10 @@
         <x:v>99.8</x:v>
       </x:c>
       <x:c r="KU14" s="3" t="n">
-        <x:v>104.3</x:v>
+        <x:v>104.4</x:v>
       </x:c>
       <x:c r="KV14" s="3" t="n">
-        <x:v>104.9</x:v>
+        <x:v>104.8</x:v>
       </x:c>
       <x:c r="KW14" s="3" t="n">
         <x:v>101</x:v>
@@ -13297,7 +13405,7 @@
         <x:v>106.7</x:v>
       </x:c>
       <x:c r="LC14" s="3" t="n">
-        <x:v>110.9</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="LD14" s="3" t="n">
         <x:v>103.9</x:v>
@@ -13335,10 +13443,19 @@
       <x:c r="LO14" s="3" t="n">
         <x:v>104.4</x:v>
       </x:c>
+      <x:c r="LP14" s="3" t="n">
+        <x:v>98.3</x:v>
+      </x:c>
+      <x:c r="LQ14" s="3" t="n">
+        <x:v>108.7</x:v>
+      </x:c>
+      <x:c r="LR14" s="3" t="n">
+        <x:v>99.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:327">
+    <x:row r="15" spans="1:330">
       <x:c r="B15" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>102.5</x:v>
@@ -14315,13 +14432,22 @@
       <x:c r="LO15" s="3" t="n">
         <x:v>100.6</x:v>
       </x:c>
+      <x:c r="LP15" s="3" t="n">
+        <x:v>97.6</x:v>
+      </x:c>
+      <x:c r="LQ15" s="3" t="n">
+        <x:v>114.3</x:v>
+      </x:c>
+      <x:c r="LR15" s="3" t="n">
+        <x:v>96.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="16" spans="1:327">
+    <x:row r="16" spans="1:330">
       <x:c r="A16" s="2" t="s">
-        <x:v>334</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>115.3</x:v>
@@ -15188,19 +15314,19 @@
         <x:v>110.9</x:v>
       </x:c>
       <x:c r="KE16" s="3" t="n">
-        <x:v>111.2</x:v>
+        <x:v>111.1</x:v>
       </x:c>
       <x:c r="KF16" s="3" t="n">
         <x:v>110.1</x:v>
       </x:c>
       <x:c r="KG16" s="3" t="n">
-        <x:v>105.3</x:v>
+        <x:v>104.9</x:v>
       </x:c>
       <x:c r="KH16" s="3" t="n">
-        <x:v>110.4</x:v>
+        <x:v>110.8</x:v>
       </x:c>
       <x:c r="KI16" s="3" t="n">
-        <x:v>111.2</x:v>
+        <x:v>111.4</x:v>
       </x:c>
       <x:c r="KJ16" s="3" t="n">
         <x:v>109.1</x:v>
@@ -15221,22 +15347,22 @@
         <x:v>108.6</x:v>
       </x:c>
       <x:c r="KP16" s="3" t="n">
-        <x:v>107.9</x:v>
+        <x:v>107.8</x:v>
       </x:c>
       <x:c r="KQ16" s="3" t="n">
         <x:v>108.9</x:v>
       </x:c>
       <x:c r="KR16" s="3" t="n">
-        <x:v>109.1</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="KS16" s="3" t="n">
-        <x:v>113.2</x:v>
+        <x:v>112.3</x:v>
       </x:c>
       <x:c r="KT16" s="3" t="n">
-        <x:v>113.4</x:v>
+        <x:v>114.2</x:v>
       </x:c>
       <x:c r="KU16" s="3" t="n">
-        <x:v>111.8</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="KV16" s="3" t="n">
         <x:v>110.1</x:v>
@@ -15251,7 +15377,7 @@
         <x:v>111.4</x:v>
       </x:c>
       <x:c r="KZ16" s="3" t="n">
-        <x:v>113.6</x:v>
+        <x:v>113.7</x:v>
       </x:c>
       <x:c r="LA16" s="3" t="n">
         <x:v>111.8</x:v>
@@ -15263,31 +15389,31 @@
         <x:v>120.8</x:v>
       </x:c>
       <x:c r="LD16" s="3" t="n">
+        <x:v>118.4</x:v>
+      </x:c>
+      <x:c r="LE16" s="3" t="n">
+        <x:v>119.1</x:v>
+      </x:c>
+      <x:c r="LF16" s="3" t="n">
+        <x:v>121.4</x:v>
+      </x:c>
+      <x:c r="LG16" s="3" t="n">
+        <x:v>117.1</x:v>
+      </x:c>
+      <x:c r="LH16" s="3" t="n">
         <x:v>118.6</x:v>
       </x:c>
-      <x:c r="LE16" s="3" t="n">
-        <x:v>120.4</x:v>
-      </x:c>
-      <x:c r="LF16" s="3" t="n">
-        <x:v>120.1</x:v>
-      </x:c>
-      <x:c r="LG16" s="3" t="n">
-        <x:v>116.8</x:v>
-      </x:c>
-      <x:c r="LH16" s="3" t="n">
-        <x:v>118.7</x:v>
-      </x:c>
       <x:c r="LI16" s="3" t="n">
-        <x:v>115</x:v>
+        <x:v>115.1</x:v>
       </x:c>
       <x:c r="LJ16" s="3" t="n">
-        <x:v>121.6</x:v>
+        <x:v>121.7</x:v>
       </x:c>
       <x:c r="LK16" s="3" t="n">
         <x:v>121.7</x:v>
       </x:c>
       <x:c r="LL16" s="3" t="n">
-        <x:v>112.2</x:v>
+        <x:v>112.3</x:v>
       </x:c>
       <x:c r="LM16" s="3" t="n">
         <x:v>112.1</x:v>
@@ -15298,10 +15424,19 @@
       <x:c r="LO16" s="3" t="n">
         <x:v>112.6</x:v>
       </x:c>
+      <x:c r="LP16" s="3" t="n">
+        <x:v>111.5</x:v>
+      </x:c>
+      <x:c r="LQ16" s="3" t="n">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="LR16" s="3" t="n">
+        <x:v>111.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:327">
+    <x:row r="17" spans="1:330">
       <x:c r="B17" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>107.1</x:v>
@@ -16225,7 +16360,7 @@
         <x:v>103.8</x:v>
       </x:c>
       <x:c r="KX17" s="3" t="n">
-        <x:v>115.1</x:v>
+        <x:v>115.2</x:v>
       </x:c>
       <x:c r="KY17" s="3" t="n">
         <x:v>121.5</x:v>
@@ -16246,16 +16381,16 @@
         <x:v>109.6</x:v>
       </x:c>
       <x:c r="LE17" s="3" t="n">
-        <x:v>119.4</x:v>
+        <x:v>119.3</x:v>
       </x:c>
       <x:c r="LF17" s="3" t="n">
-        <x:v>112</x:v>
+        <x:v>112.1</x:v>
       </x:c>
       <x:c r="LG17" s="3" t="n">
         <x:v>111.8</x:v>
       </x:c>
       <x:c r="LH17" s="3" t="n">
-        <x:v>116.9</x:v>
+        <x:v>116.8</x:v>
       </x:c>
       <x:c r="LI17" s="3" t="n">
         <x:v>103.9</x:v>
@@ -16267,7 +16402,7 @@
         <x:v>132.6</x:v>
       </x:c>
       <x:c r="LL17" s="3" t="n">
-        <x:v>129.7</x:v>
+        <x:v>129.8</x:v>
       </x:c>
       <x:c r="LM17" s="3" t="n">
         <x:v>122.2</x:v>
@@ -16278,10 +16413,19 @@
       <x:c r="LO17" s="3" t="n">
         <x:v>109.7</x:v>
       </x:c>
+      <x:c r="LP17" s="3" t="n">
+        <x:v>103.4</x:v>
+      </x:c>
+      <x:c r="LQ17" s="3" t="n">
+        <x:v>113.4</x:v>
+      </x:c>
+      <x:c r="LR17" s="3" t="n">
+        <x:v>102.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:327">
+    <x:row r="18" spans="1:330">
       <x:c r="B18" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>106.3</x:v>
@@ -17258,13 +17402,22 @@
       <x:c r="LO18" s="3" t="n">
         <x:v>105.9</x:v>
       </x:c>
+      <x:c r="LP18" s="3" t="n">
+        <x:v>102.6</x:v>
+      </x:c>
+      <x:c r="LQ18" s="3" t="n">
+        <x:v>119.2</x:v>
+      </x:c>
+      <x:c r="LR18" s="3" t="n">
+        <x:v>99.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:327">
+    <x:row r="19" spans="1:330">
       <x:c r="A19" s="2" t="s">
-        <x:v>335</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>194.4</x:v>
@@ -18131,22 +18284,22 @@
         <x:v>78.7</x:v>
       </x:c>
       <x:c r="KE19" s="3" t="n">
-        <x:v>78.1</x:v>
+        <x:v>78.2</x:v>
       </x:c>
       <x:c r="KF19" s="3" t="n">
-        <x:v>79.8</x:v>
+        <x:v>79.9</x:v>
       </x:c>
       <x:c r="KG19" s="3" t="n">
-        <x:v>78.1</x:v>
+        <x:v>79.1</x:v>
       </x:c>
       <x:c r="KH19" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>81.5</x:v>
       </x:c>
       <x:c r="KI19" s="3" t="n">
         <x:v>78.9</x:v>
       </x:c>
       <x:c r="KJ19" s="3" t="n">
-        <x:v>78</x:v>
+        <x:v>77.8</x:v>
       </x:c>
       <x:c r="KK19" s="3" t="n">
         <x:v>82.2</x:v>
@@ -18155,7 +18308,7 @@
         <x:v>81.6</x:v>
       </x:c>
       <x:c r="KM19" s="3" t="n">
-        <x:v>80.8</x:v>
+        <x:v>80.9</x:v>
       </x:c>
       <x:c r="KN19" s="3" t="n">
         <x:v>76.6</x:v>
@@ -18167,22 +18320,22 @@
         <x:v>79.9</x:v>
       </x:c>
       <x:c r="KQ19" s="3" t="n">
-        <x:v>79.5</x:v>
+        <x:v>79.6</x:v>
       </x:c>
       <x:c r="KR19" s="3" t="n">
-        <x:v>80</x:v>
+        <x:v>80.1</x:v>
       </x:c>
       <x:c r="KS19" s="3" t="n">
-        <x:v>71.9</x:v>
+        <x:v>73.3</x:v>
       </x:c>
       <x:c r="KT19" s="3" t="n">
-        <x:v>68.3</x:v>
+        <x:v>66.7</x:v>
       </x:c>
       <x:c r="KU19" s="3" t="n">
         <x:v>72.8</x:v>
       </x:c>
       <x:c r="KV19" s="3" t="n">
-        <x:v>72.7</x:v>
+        <x:v>72.5</x:v>
       </x:c>
       <x:c r="KW19" s="3" t="n">
         <x:v>73.7</x:v>
@@ -18191,34 +18344,34 @@
         <x:v>79.1</x:v>
       </x:c>
       <x:c r="KY19" s="3" t="n">
-        <x:v>70.9</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="KZ19" s="3" t="n">
-        <x:v>74.8</x:v>
+        <x:v>74.7</x:v>
       </x:c>
       <x:c r="LA19" s="3" t="n">
-        <x:v>75.3</x:v>
+        <x:v>75.4</x:v>
       </x:c>
       <x:c r="LB19" s="3" t="n">
-        <x:v>79.8</x:v>
+        <x:v>79.9</x:v>
       </x:c>
       <x:c r="LC19" s="3" t="n">
-        <x:v>80.6</x:v>
+        <x:v>80.8</x:v>
       </x:c>
       <x:c r="LD19" s="3" t="n">
-        <x:v>77.4</x:v>
+        <x:v>77.6</x:v>
       </x:c>
       <x:c r="LE19" s="3" t="n">
-        <x:v>76.6</x:v>
+        <x:v>78.3</x:v>
       </x:c>
       <x:c r="LF19" s="3" t="n">
-        <x:v>77.1</x:v>
+        <x:v>75.1</x:v>
       </x:c>
       <x:c r="LG19" s="3" t="n">
-        <x:v>83.2</x:v>
+        <x:v>83.1</x:v>
       </x:c>
       <x:c r="LH19" s="3" t="n">
-        <x:v>76.5</x:v>
+        <x:v>76.3</x:v>
       </x:c>
       <x:c r="LI19" s="3" t="n">
         <x:v>81.3</x:v>
@@ -18227,24 +18380,33 @@
         <x:v>78.7</x:v>
       </x:c>
       <x:c r="LK19" s="3" t="n">
-        <x:v>75.4</x:v>
+        <x:v>75.5</x:v>
       </x:c>
       <x:c r="LL19" s="3" t="n">
-        <x:v>79.3</x:v>
+        <x:v>79.2</x:v>
       </x:c>
       <x:c r="LM19" s="3" t="n">
-        <x:v>77</x:v>
+        <x:v>77.1</x:v>
       </x:c>
       <x:c r="LN19" s="3" t="n">
         <x:v>75.5</x:v>
       </x:c>
       <x:c r="LO19" s="3" t="n">
-        <x:v>81.9</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="LP19" s="3" t="n">
+        <x:v>80.6</x:v>
+      </x:c>
+      <x:c r="LQ19" s="3" t="n">
+        <x:v>80.7</x:v>
+      </x:c>
+      <x:c r="LR19" s="3" t="n">
+        <x:v>84.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:327">
+    <x:row r="20" spans="1:330">
       <x:c r="B20" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>211.2</x:v>
@@ -19123,7 +19285,7 @@
         <x:v>81.3</x:v>
       </x:c>
       <x:c r="KI20" s="3" t="n">
-        <x:v>78</x:v>
+        <x:v>77.9</x:v>
       </x:c>
       <x:c r="KJ20" s="3" t="n">
         <x:v>82.4</x:v>
@@ -19141,7 +19303,7 @@
         <x:v>83.9</x:v>
       </x:c>
       <x:c r="KO20" s="3" t="n">
-        <x:v>87.6</x:v>
+        <x:v>87.5</x:v>
       </x:c>
       <x:c r="KP20" s="3" t="n">
         <x:v>76</x:v>
@@ -19153,7 +19315,7 @@
         <x:v>79.8</x:v>
       </x:c>
       <x:c r="KS20" s="3" t="n">
-        <x:v>73.7</x:v>
+        <x:v>73.8</x:v>
       </x:c>
       <x:c r="KT20" s="3" t="n">
         <x:v>67.1</x:v>
@@ -19174,7 +19336,7 @@
         <x:v>78.6</x:v>
       </x:c>
       <x:c r="KZ20" s="3" t="n">
-        <x:v>81.6</x:v>
+        <x:v>81.5</x:v>
       </x:c>
       <x:c r="LA20" s="3" t="n">
         <x:v>83.1</x:v>
@@ -19192,10 +19354,10 @@
         <x:v>78.7</x:v>
       </x:c>
       <x:c r="LF20" s="3" t="n">
-        <x:v>75.9</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="LG20" s="3" t="n">
-        <x:v>81.9</x:v>
+        <x:v>81.8</x:v>
       </x:c>
       <x:c r="LH20" s="3" t="n">
         <x:v>80.6</x:v>
@@ -19221,10 +19383,19 @@
       <x:c r="LO20" s="3" t="n">
         <x:v>85.9</x:v>
       </x:c>
+      <x:c r="LP20" s="3" t="n">
+        <x:v>80.3</x:v>
+      </x:c>
+      <x:c r="LQ20" s="3" t="n">
+        <x:v>80.8</x:v>
+      </x:c>
+      <x:c r="LR20" s="3" t="n">
+        <x:v>85.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:327">
+    <x:row r="21" spans="1:330">
       <x:c r="B21" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>204.8</x:v>
@@ -20201,13 +20372,22 @@
       <x:c r="LO21" s="3" t="n">
         <x:v>80.8</x:v>
       </x:c>
+      <x:c r="LP21" s="3" t="n">
+        <x:v>79.8</x:v>
+      </x:c>
+      <x:c r="LQ21" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="LR21" s="3" t="n">
+        <x:v>79.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:327">
+    <x:row r="22" spans="1:330">
       <x:c r="A22" s="2" t="s">
-        <x:v>336</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>95.7</x:v>
@@ -21077,19 +21257,19 @@
         <x:v>86.8</x:v>
       </x:c>
       <x:c r="KF22" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="KG22" s="3" t="n">
-        <x:v>83.1</x:v>
+        <x:v>82.9</x:v>
       </x:c>
       <x:c r="KH22" s="3" t="n">
-        <x:v>81.9</x:v>
+        <x:v>82.1</x:v>
       </x:c>
       <x:c r="KI22" s="3" t="n">
-        <x:v>84.4</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="KJ22" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="KK22" s="3" t="n">
         <x:v>83.6</x:v>
@@ -21098,7 +21278,7 @@
         <x:v>85.8</x:v>
       </x:c>
       <x:c r="KM22" s="3" t="n">
-        <x:v>83.4</x:v>
+        <x:v>83.5</x:v>
       </x:c>
       <x:c r="KN22" s="3" t="n">
         <x:v>83.4</x:v>
@@ -21110,31 +21290,31 @@
         <x:v>80.1</x:v>
       </x:c>
       <x:c r="KQ22" s="3" t="n">
-        <x:v>80.4</x:v>
+        <x:v>80.3</x:v>
       </x:c>
       <x:c r="KR22" s="3" t="n">
-        <x:v>84.9</x:v>
+        <x:v>84.8</x:v>
       </x:c>
       <x:c r="KS22" s="3" t="n">
-        <x:v>83.2</x:v>
+        <x:v>82.8</x:v>
       </x:c>
       <x:c r="KT22" s="3" t="n">
-        <x:v>85.2</x:v>
+        <x:v>85.5</x:v>
       </x:c>
       <x:c r="KU22" s="3" t="n">
         <x:v>87.3</x:v>
       </x:c>
       <x:c r="KV22" s="3" t="n">
-        <x:v>80.7</x:v>
+        <x:v>80.8</x:v>
       </x:c>
       <x:c r="KW22" s="3" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="KX22" s="3" t="n">
-        <x:v>90.5</x:v>
+        <x:v>90.6</x:v>
       </x:c>
       <x:c r="KY22" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>87.1</x:v>
       </x:c>
       <x:c r="KZ22" s="3" t="n">
         <x:v>86</x:v>
@@ -21146,48 +21326,57 @@
         <x:v>92.8</x:v>
       </x:c>
       <x:c r="LC22" s="3" t="n">
-        <x:v>89.7</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="LD22" s="3" t="n">
-        <x:v>92.8</x:v>
+        <x:v>92.6</x:v>
       </x:c>
       <x:c r="LE22" s="3" t="n">
-        <x:v>91.2</x:v>
+        <x:v>90.7</x:v>
       </x:c>
       <x:c r="LF22" s="3" t="n">
-        <x:v>95.3</x:v>
+        <x:v>95.8</x:v>
       </x:c>
       <x:c r="LG22" s="3" t="n">
-        <x:v>90</x:v>
+        <x:v>90.1</x:v>
       </x:c>
       <x:c r="LH22" s="3" t="n">
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="LI22" s="3" t="n">
-        <x:v>98.3</x:v>
+        <x:v>98.4</x:v>
       </x:c>
       <x:c r="LJ22" s="3" t="n">
-        <x:v>79.3</x:v>
+        <x:v>79.4</x:v>
       </x:c>
       <x:c r="LK22" s="3" t="n">
         <x:v>90.4</x:v>
       </x:c>
       <x:c r="LL22" s="3" t="n">
-        <x:v>88.7</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="LM22" s="3" t="n">
         <x:v>92.8</x:v>
       </x:c>
       <x:c r="LN22" s="3" t="n">
-        <x:v>88.6</x:v>
+        <x:v>88.5</x:v>
       </x:c>
       <x:c r="LO22" s="3" t="n">
-        <x:v>99.7</x:v>
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="LP22" s="3" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="LQ22" s="3" t="n">
+        <x:v>90.9</x:v>
+      </x:c>
+      <x:c r="LR22" s="3" t="n">
+        <x:v>89.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:327">
+    <x:row r="23" spans="1:330">
       <x:c r="B23" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>100</x:v>
@@ -22066,7 +22255,7 @@
         <x:v>75.6</x:v>
       </x:c>
       <x:c r="KI23" s="3" t="n">
-        <x:v>86.6</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="KJ23" s="3" t="n">
         <x:v>97.3</x:v>
@@ -22093,10 +22282,10 @@
         <x:v>79.5</x:v>
       </x:c>
       <x:c r="KR23" s="3" t="n">
-        <x:v>80.7</x:v>
+        <x:v>80.8</x:v>
       </x:c>
       <x:c r="KS23" s="3" t="n">
-        <x:v>83.9</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="KT23" s="3" t="n">
         <x:v>78.3</x:v>
@@ -22126,7 +22315,7 @@
         <x:v>74.7</x:v>
       </x:c>
       <x:c r="LC23" s="3" t="n">
-        <x:v>88.3</x:v>
+        <x:v>88.4</x:v>
       </x:c>
       <x:c r="LD23" s="3" t="n">
         <x:v>88.4</x:v>
@@ -22135,7 +22324,7 @@
         <x:v>91.9</x:v>
       </x:c>
       <x:c r="LF23" s="3" t="n">
-        <x:v>87.6</x:v>
+        <x:v>87.5</x:v>
       </x:c>
       <x:c r="LG23" s="3" t="n">
         <x:v>92.7</x:v>
@@ -22162,12 +22351,21 @@
         <x:v>71.2</x:v>
       </x:c>
       <x:c r="LO23" s="3" t="n">
-        <x:v>97.8</x:v>
+        <x:v>97.9</x:v>
+      </x:c>
+      <x:c r="LP23" s="3" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="LQ23" s="3" t="n">
+        <x:v>92.1</x:v>
+      </x:c>
+      <x:c r="LR23" s="3" t="n">
+        <x:v>81.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:327">
+    <x:row r="24" spans="1:330">
       <x:c r="B24" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>98.9</x:v>
@@ -23144,13 +23342,22 @@
       <x:c r="LO24" s="3" t="n">
         <x:v>93.6</x:v>
       </x:c>
+      <x:c r="LP24" s="3" t="n">
+        <x:v>87.2</x:v>
+      </x:c>
+      <x:c r="LQ24" s="3" t="n">
+        <x:v>102.8</x:v>
+      </x:c>
+      <x:c r="LR24" s="3" t="n">
+        <x:v>74.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:327">
+    <x:row r="25" spans="1:330">
       <x:c r="A25" s="2" t="s">
-        <x:v>337</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>109.8</x:v>
@@ -24023,13 +24230,13 @@
         <x:v>51.9</x:v>
       </x:c>
       <x:c r="KG25" s="3" t="n">
-        <x:v>54.3</x:v>
+        <x:v>54.5</x:v>
       </x:c>
       <x:c r="KH25" s="3" t="n">
-        <x:v>52.5</x:v>
+        <x:v>52.2</x:v>
       </x:c>
       <x:c r="KI25" s="3" t="n">
-        <x:v>55.6</x:v>
+        <x:v>55.5</x:v>
       </x:c>
       <x:c r="KJ25" s="3" t="n">
         <x:v>50.7</x:v>
@@ -24038,7 +24245,7 @@
         <x:v>52.9</x:v>
       </x:c>
       <x:c r="KL25" s="3" t="n">
-        <x:v>54.2</x:v>
+        <x:v>54.3</x:v>
       </x:c>
       <x:c r="KM25" s="3" t="n">
         <x:v>53.2</x:v>
@@ -24050,7 +24257,7 @@
         <x:v>50.8</x:v>
       </x:c>
       <x:c r="KP25" s="3" t="n">
-        <x:v>52.3</x:v>
+        <x:v>52.4</x:v>
       </x:c>
       <x:c r="KQ25" s="3" t="n">
         <x:v>53.4</x:v>
@@ -24059,10 +24266,10 @@
         <x:v>50.1</x:v>
       </x:c>
       <x:c r="KS25" s="3" t="n">
-        <x:v>54.4</x:v>
+        <x:v>54.7</x:v>
       </x:c>
       <x:c r="KT25" s="3" t="n">
-        <x:v>51.1</x:v>
+        <x:v>50.8</x:v>
       </x:c>
       <x:c r="KU25" s="3" t="n">
         <x:v>47.5</x:v>
@@ -24092,13 +24299,13 @@
         <x:v>51.3</x:v>
       </x:c>
       <x:c r="LD25" s="3" t="n">
-        <x:v>55.1</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="LE25" s="3" t="n">
-        <x:v>55</x:v>
+        <x:v>55.3</x:v>
       </x:c>
       <x:c r="LF25" s="3" t="n">
-        <x:v>56.9</x:v>
+        <x:v>56.5</x:v>
       </x:c>
       <x:c r="LG25" s="3" t="n">
         <x:v>52.7</x:v>
@@ -24127,10 +24334,19 @@
       <x:c r="LO25" s="3" t="n">
         <x:v>59.9</x:v>
       </x:c>
+      <x:c r="LP25" s="3" t="n">
+        <x:v>58.5</x:v>
+      </x:c>
+      <x:c r="LQ25" s="3" t="n">
+        <x:v>58.4</x:v>
+      </x:c>
+      <x:c r="LR25" s="3" t="n">
+        <x:v>60.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="26" spans="1:327">
+    <x:row r="26" spans="1:330">
       <x:c r="B26" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>118.2</x:v>
@@ -25081,7 +25297,7 @@
         <x:v>52.5</x:v>
       </x:c>
       <x:c r="LG26" s="3" t="n">
-        <x:v>52.6</x:v>
+        <x:v>52.5</x:v>
       </x:c>
       <x:c r="LH26" s="3" t="n">
         <x:v>55.1</x:v>
@@ -25107,10 +25323,19 @@
       <x:c r="LO26" s="3" t="n">
         <x:v>61.9</x:v>
       </x:c>
+      <x:c r="LP26" s="3" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="LQ26" s="3" t="n">
+        <x:v>59.5</x:v>
+      </x:c>
+      <x:c r="LR26" s="3" t="n">
+        <x:v>56.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:327">
+    <x:row r="27" spans="1:330">
       <x:c r="B27" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>117</x:v>
@@ -26087,13 +26312,22 @@
       <x:c r="LO27" s="3" t="n">
         <x:v>60.6</x:v>
       </x:c>
+      <x:c r="LP27" s="3" t="n">
+        <x:v>55.8</x:v>
+      </x:c>
+      <x:c r="LQ27" s="3" t="n">
+        <x:v>61.4</x:v>
+      </x:c>
+      <x:c r="LR27" s="3" t="n">
+        <x:v>55.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:327">
+    <x:row r="28" spans="1:330">
       <x:c r="A28" s="2" t="s">
-        <x:v>338</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>105.5</x:v>
@@ -26966,10 +27200,10 @@
         <x:v>74.6</x:v>
       </x:c>
       <x:c r="KG28" s="3" t="n">
-        <x:v>73.1</x:v>
+        <x:v>73.2</x:v>
       </x:c>
       <x:c r="KH28" s="3" t="n">
-        <x:v>74.5</x:v>
+        <x:v>74.4</x:v>
       </x:c>
       <x:c r="KI28" s="3" t="n">
         <x:v>74.3</x:v>
@@ -27002,10 +27236,10 @@
         <x:v>74.3</x:v>
       </x:c>
       <x:c r="KS28" s="3" t="n">
-        <x:v>69.6</x:v>
+        <x:v>69.7</x:v>
       </x:c>
       <x:c r="KT28" s="3" t="n">
-        <x:v>58.1</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="KU28" s="3" t="n">
         <x:v>60.2</x:v>
@@ -27038,7 +27272,7 @@
         <x:v>56.4</x:v>
       </x:c>
       <x:c r="LE28" s="3" t="n">
-        <x:v>57.9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="LF28" s="3" t="n">
         <x:v>53.7</x:v>
@@ -27070,10 +27304,19 @@
       <x:c r="LO28" s="3" t="n">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="LP28" s="3" t="n">
+        <x:v>56.8</x:v>
+      </x:c>
+      <x:c r="LQ28" s="3" t="n">
+        <x:v>56.5</x:v>
+      </x:c>
+      <x:c r="LR28" s="3" t="n">
+        <x:v>56.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:327">
+    <x:row r="29" spans="1:330">
       <x:c r="B29" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>112.9</x:v>
@@ -28050,10 +28293,19 @@
       <x:c r="LO29" s="3" t="n">
         <x:v>58.6</x:v>
       </x:c>
+      <x:c r="LP29" s="3" t="n">
+        <x:v>55.8</x:v>
+      </x:c>
+      <x:c r="LQ29" s="3" t="n">
+        <x:v>57.5</x:v>
+      </x:c>
+      <x:c r="LR29" s="3" t="n">
+        <x:v>55.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="30" spans="1:327">
+    <x:row r="30" spans="1:330">
       <x:c r="B30" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>112.2</x:v>
@@ -29030,13 +29282,22 @@
       <x:c r="LO30" s="3" t="n">
         <x:v>57.1</x:v>
       </x:c>
+      <x:c r="LP30" s="3" t="n">
+        <x:v>55.4</x:v>
+      </x:c>
+      <x:c r="LQ30" s="3" t="n">
+        <x:v>60.7</x:v>
+      </x:c>
+      <x:c r="LR30" s="3" t="n">
+        <x:v>53.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="31" spans="1:327">
+    <x:row r="31" spans="1:330">
       <x:c r="A31" s="2" t="s">
-        <x:v>339</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>86.5</x:v>
@@ -29909,10 +30170,10 @@
         <x:v>122.7</x:v>
       </x:c>
       <x:c r="KG31" s="3" t="n">
-        <x:v>124.2</x:v>
+        <x:v>124.3</x:v>
       </x:c>
       <x:c r="KH31" s="3" t="n">
-        <x:v>126.6</x:v>
+        <x:v>126.5</x:v>
       </x:c>
       <x:c r="KI31" s="3" t="n">
         <x:v>124</x:v>
@@ -29921,7 +30182,7 @@
         <x:v>116.9</x:v>
       </x:c>
       <x:c r="KK31" s="3" t="n">
-        <x:v>129.5</x:v>
+        <x:v>129.4</x:v>
       </x:c>
       <x:c r="KL31" s="3" t="n">
         <x:v>124.6</x:v>
@@ -29945,25 +30206,25 @@
         <x:v>124.4</x:v>
       </x:c>
       <x:c r="KS31" s="3" t="n">
-        <x:v>126.8</x:v>
+        <x:v>127.1</x:v>
       </x:c>
       <x:c r="KT31" s="3" t="n">
-        <x:v>127.9</x:v>
+        <x:v>127.6</x:v>
       </x:c>
       <x:c r="KU31" s="3" t="n">
         <x:v>110.4</x:v>
       </x:c>
       <x:c r="KV31" s="3" t="n">
-        <x:v>115.8</x:v>
+        <x:v>115.7</x:v>
       </x:c>
       <x:c r="KW31" s="3" t="n">
-        <x:v>126.3</x:v>
+        <x:v>126.1</x:v>
       </x:c>
       <x:c r="KX31" s="3" t="n">
         <x:v>118.8</x:v>
       </x:c>
       <x:c r="KY31" s="3" t="n">
-        <x:v>124.6</x:v>
+        <x:v>124.5</x:v>
       </x:c>
       <x:c r="KZ31" s="3" t="n">
         <x:v>121.2</x:v>
@@ -29975,16 +30236,16 @@
         <x:v>123.6</x:v>
       </x:c>
       <x:c r="LC31" s="3" t="n">
-        <x:v>129.4</x:v>
+        <x:v>129.5</x:v>
       </x:c>
       <x:c r="LD31" s="3" t="n">
         <x:v>126.7</x:v>
       </x:c>
       <x:c r="LE31" s="3" t="n">
-        <x:v>129.5</x:v>
+        <x:v>130.1</x:v>
       </x:c>
       <x:c r="LF31" s="3" t="n">
-        <x:v>135.8</x:v>
+        <x:v>135.5</x:v>
       </x:c>
       <x:c r="LG31" s="3" t="n">
         <x:v>135.5</x:v>
@@ -29993,7 +30254,7 @@
         <x:v>132.5</x:v>
       </x:c>
       <x:c r="LI31" s="3" t="n">
-        <x:v>134.2</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="LJ31" s="3" t="n">
         <x:v>139</x:v>
@@ -30002,21 +30263,30 @@
         <x:v>137.1</x:v>
       </x:c>
       <x:c r="LL31" s="3" t="n">
-        <x:v>131.2</x:v>
+        <x:v>131.1</x:v>
       </x:c>
       <x:c r="LM31" s="3" t="n">
-        <x:v>128.9</x:v>
+        <x:v>128.8</x:v>
       </x:c>
       <x:c r="LN31" s="3" t="n">
-        <x:v>126.3</x:v>
+        <x:v>126.4</x:v>
       </x:c>
       <x:c r="LO31" s="3" t="n">
-        <x:v>134</x:v>
+        <x:v>134.1</x:v>
+      </x:c>
+      <x:c r="LP31" s="3" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="LQ31" s="3" t="n">
+        <x:v>129.1</x:v>
+      </x:c>
+      <x:c r="LR31" s="3" t="n">
+        <x:v>131</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:327">
+    <x:row r="32" spans="1:330">
       <x:c r="B32" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>92.9</x:v>
@@ -30889,7 +31159,7 @@
         <x:v>123.9</x:v>
       </x:c>
       <x:c r="KG32" s="3" t="n">
-        <x:v>129.7</x:v>
+        <x:v>129.8</x:v>
       </x:c>
       <x:c r="KH32" s="3" t="n">
         <x:v>124.2</x:v>
@@ -30928,7 +31198,7 @@
         <x:v>132.5</x:v>
       </x:c>
       <x:c r="KT32" s="3" t="n">
-        <x:v>125.8</x:v>
+        <x:v>125.7</x:v>
       </x:c>
       <x:c r="KU32" s="3" t="n">
         <x:v>121.6</x:v>
@@ -30993,10 +31263,19 @@
       <x:c r="LO32" s="3" t="n">
         <x:v>143.5</x:v>
       </x:c>
+      <x:c r="LP32" s="3" t="n">
+        <x:v>128.3</x:v>
+      </x:c>
+      <x:c r="LQ32" s="3" t="n">
+        <x:v>134.3</x:v>
+      </x:c>
+      <x:c r="LR32" s="3" t="n">
+        <x:v>128.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="33" spans="1:327">
+    <x:row r="33" spans="1:330">
       <x:c r="B33" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>92.1</x:v>
@@ -31973,13 +32252,22 @@
       <x:c r="LO33" s="3" t="n">
         <x:v>135.8</x:v>
       </x:c>
+      <x:c r="LP33" s="3" t="n">
+        <x:v>127.4</x:v>
+      </x:c>
+      <x:c r="LQ33" s="3" t="n">
+        <x:v>137.4</x:v>
+      </x:c>
+      <x:c r="LR33" s="3" t="n">
+        <x:v>127.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="34" spans="1:327">
+    <x:row r="34" spans="1:330">
       <x:c r="A34" s="2" t="s">
-        <x:v>340</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>102.8</x:v>
@@ -32861,7 +33149,7 @@
         <x:v>94.9</x:v>
       </x:c>
       <x:c r="KJ34" s="3" t="n">
-        <x:v>103.4</x:v>
+        <x:v>103.3</x:v>
       </x:c>
       <x:c r="KK34" s="3" t="n">
         <x:v>115.9</x:v>
@@ -32873,10 +33161,10 @@
         <x:v>114.9</x:v>
       </x:c>
       <x:c r="KN34" s="3" t="n">
-        <x:v>109.1</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="KO34" s="3" t="n">
-        <x:v>112.5</x:v>
+        <x:v>112.7</x:v>
       </x:c>
       <x:c r="KP34" s="3" t="n">
         <x:v>113.8</x:v>
@@ -32885,19 +33173,19 @@
         <x:v>112.7</x:v>
       </x:c>
       <x:c r="KR34" s="3" t="n">
-        <x:v>114.9</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="KS34" s="3" t="n">
-        <x:v>108.1</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="KT34" s="3" t="n">
         <x:v>117.9</x:v>
       </x:c>
       <x:c r="KU34" s="3" t="n">
-        <x:v>110.2</x:v>
+        <x:v>110.3</x:v>
       </x:c>
       <x:c r="KV34" s="3" t="n">
-        <x:v>120</x:v>
+        <x:v>119.9</x:v>
       </x:c>
       <x:c r="KW34" s="3" t="n">
         <x:v>118.2</x:v>
@@ -32909,13 +33197,13 @@
         <x:v>116.2</x:v>
       </x:c>
       <x:c r="KZ34" s="3" t="n">
-        <x:v>119.1</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="LA34" s="3" t="n">
-        <x:v>116.6</x:v>
+        <x:v>116.7</x:v>
       </x:c>
       <x:c r="LB34" s="3" t="n">
-        <x:v>110.5</x:v>
+        <x:v>110.6</x:v>
       </x:c>
       <x:c r="LC34" s="3" t="n">
         <x:v>110.7</x:v>
@@ -32924,22 +33212,22 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="LE34" s="3" t="n">
-        <x:v>114.5</x:v>
+        <x:v>114.3</x:v>
       </x:c>
       <x:c r="LF34" s="3" t="n">
-        <x:v>125.5</x:v>
+        <x:v>125.6</x:v>
       </x:c>
       <x:c r="LG34" s="3" t="n">
-        <x:v>123.9</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="LH34" s="3" t="n">
-        <x:v>118.9</x:v>
+        <x:v>118.8</x:v>
       </x:c>
       <x:c r="LI34" s="3" t="n">
         <x:v>123.8</x:v>
       </x:c>
       <x:c r="LJ34" s="3" t="n">
-        <x:v>125.3</x:v>
+        <x:v>125.4</x:v>
       </x:c>
       <x:c r="LK34" s="3" t="n">
         <x:v>123.4</x:v>
@@ -32951,15 +33239,24 @@
         <x:v>117.7</x:v>
       </x:c>
       <x:c r="LN34" s="3" t="n">
-        <x:v>120.5</x:v>
+        <x:v>120.6</x:v>
       </x:c>
       <x:c r="LO34" s="3" t="n">
-        <x:v>116</x:v>
+        <x:v>116.1</x:v>
+      </x:c>
+      <x:c r="LP34" s="3" t="n">
+        <x:v>119.5</x:v>
+      </x:c>
+      <x:c r="LQ34" s="3" t="n">
+        <x:v>99.1</x:v>
+      </x:c>
+      <x:c r="LR34" s="3" t="n">
+        <x:v>98.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:327">
+    <x:row r="35" spans="1:330">
       <x:c r="B35" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C35" s="3" t="n">
         <x:v>108.2</x:v>
@@ -33936,10 +34233,19 @@
       <x:c r="LO35" s="3" t="n">
         <x:v>121.3</x:v>
       </x:c>
+      <x:c r="LP35" s="3" t="n">
+        <x:v>117.4</x:v>
+      </x:c>
+      <x:c r="LQ35" s="3" t="n">
+        <x:v>103.8</x:v>
+      </x:c>
+      <x:c r="LR35" s="3" t="n">
+        <x:v>96.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="36" spans="1:327">
+    <x:row r="36" spans="1:330">
       <x:c r="B36" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C36" s="3" t="n">
         <x:v>108.4</x:v>
@@ -34916,13 +35222,22 @@
       <x:c r="LO36" s="3" t="n">
         <x:v>121.3</x:v>
       </x:c>
+      <x:c r="LP36" s="3" t="n">
+        <x:v>117.2</x:v>
+      </x:c>
+      <x:c r="LQ36" s="3" t="n">
+        <x:v>103.8</x:v>
+      </x:c>
+      <x:c r="LR36" s="3" t="n">
+        <x:v>96.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="37" spans="1:327">
+    <x:row r="37" spans="1:330">
       <x:c r="A37" s="2" t="s">
-        <x:v>341</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C37" s="3" t="n">
         <x:v>116.9</x:v>
@@ -35795,10 +36110,10 @@
         <x:v>93.2</x:v>
       </x:c>
       <x:c r="KG37" s="3" t="n">
-        <x:v>91.3</x:v>
+        <x:v>91.4</x:v>
       </x:c>
       <x:c r="KH37" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>90.8</x:v>
       </x:c>
       <x:c r="KI37" s="3" t="n">
         <x:v>92.3</x:v>
@@ -35825,16 +36140,16 @@
         <x:v>89.3</x:v>
       </x:c>
       <x:c r="KQ37" s="3" t="n">
-        <x:v>89.9</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="KR37" s="3" t="n">
-        <x:v>92.7</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="KS37" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.6</x:v>
       </x:c>
       <x:c r="KT37" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89.2</x:v>
       </x:c>
       <x:c r="KU37" s="3" t="n">
         <x:v>83.9</x:v>
@@ -35858,7 +36173,7 @@
         <x:v>91.8</x:v>
       </x:c>
       <x:c r="LB37" s="3" t="n">
-        <x:v>91.2</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="LC37" s="3" t="n">
         <x:v>87.3</x:v>
@@ -35867,10 +36182,10 @@
         <x:v>87.7</x:v>
       </x:c>
       <x:c r="LE37" s="3" t="n">
-        <x:v>94.3</x:v>
+        <x:v>94.5</x:v>
       </x:c>
       <x:c r="LF37" s="3" t="n">
-        <x:v>92</x:v>
+        <x:v>91.7</x:v>
       </x:c>
       <x:c r="LG37" s="3" t="n">
         <x:v>92</x:v>
@@ -35899,10 +36214,19 @@
       <x:c r="LO37" s="3" t="n">
         <x:v>89.7</x:v>
       </x:c>
+      <x:c r="LP37" s="3" t="n">
+        <x:v>84.8</x:v>
+      </x:c>
+      <x:c r="LQ37" s="3" t="n">
+        <x:v>94.3</x:v>
+      </x:c>
+      <x:c r="LR37" s="3" t="n">
+        <x:v>94.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="38" spans="1:327">
+    <x:row r="38" spans="1:330">
       <x:c r="B38" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C38" s="3" t="n">
         <x:v>122.2</x:v>
@@ -36820,7 +37144,7 @@
         <x:v>90.2</x:v>
       </x:c>
       <x:c r="KV38" s="3" t="n">
-        <x:v>99</x:v>
+        <x:v>99.1</x:v>
       </x:c>
       <x:c r="KW38" s="3" t="n">
         <x:v>56</x:v>
@@ -36853,7 +37177,7 @@
         <x:v>86.9</x:v>
       </x:c>
       <x:c r="LG38" s="3" t="n">
-        <x:v>99</x:v>
+        <x:v>98.9</x:v>
       </x:c>
       <x:c r="LH38" s="3" t="n">
         <x:v>102.4</x:v>
@@ -36879,10 +37203,19 @@
       <x:c r="LO38" s="3" t="n">
         <x:v>85.1</x:v>
       </x:c>
+      <x:c r="LP38" s="3" t="n">
+        <x:v>78.6</x:v>
+      </x:c>
+      <x:c r="LQ38" s="3" t="n">
+        <x:v>91.2</x:v>
+      </x:c>
+      <x:c r="LR38" s="3" t="n">
+        <x:v>90</x:v>
+      </x:c>
     </x:row>
-    <x:row r="39" spans="1:327">
+    <x:row r="39" spans="1:330">
       <x:c r="B39" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C39" s="3" t="n">
         <x:v>121.4</x:v>
@@ -37859,13 +38192,22 @@
       <x:c r="LO39" s="3" t="n">
         <x:v>82.5</x:v>
       </x:c>
+      <x:c r="LP39" s="3" t="n">
+        <x:v>78.3</x:v>
+      </x:c>
+      <x:c r="LQ39" s="3" t="n">
+        <x:v>99.1</x:v>
+      </x:c>
+      <x:c r="LR39" s="3" t="n">
+        <x:v>83.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="40" spans="1:327">
+    <x:row r="40" spans="1:330">
       <x:c r="A40" s="2" t="s">
-        <x:v>342</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C40" s="3" t="n">
         <x:v>90.4</x:v>
@@ -38732,16 +39074,16 @@
         <x:v>81.5</x:v>
       </x:c>
       <x:c r="KE40" s="3" t="n">
-        <x:v>82</x:v>
+        <x:v>81.9</x:v>
       </x:c>
       <x:c r="KF40" s="3" t="n">
-        <x:v>82.1</x:v>
+        <x:v>81.8</x:v>
       </x:c>
       <x:c r="KG40" s="3" t="n">
-        <x:v>79.7</x:v>
+        <x:v>79.5</x:v>
       </x:c>
       <x:c r="KH40" s="3" t="n">
-        <x:v>78.7</x:v>
+        <x:v>78.9</x:v>
       </x:c>
       <x:c r="KI40" s="3" t="n">
         <x:v>79.7</x:v>
@@ -38753,7 +39095,7 @@
         <x:v>78.9</x:v>
       </x:c>
       <x:c r="KL40" s="3" t="n">
-        <x:v>78</x:v>
+        <x:v>77.9</x:v>
       </x:c>
       <x:c r="KM40" s="3" t="n">
         <x:v>79.5</x:v>
@@ -38762,25 +39104,25 @@
         <x:v>76.8</x:v>
       </x:c>
       <x:c r="KO40" s="3" t="n">
-        <x:v>75.5</x:v>
+        <x:v>75.4</x:v>
       </x:c>
       <x:c r="KP40" s="3" t="n">
-        <x:v>74.4</x:v>
+        <x:v>74.2</x:v>
       </x:c>
       <x:c r="KQ40" s="3" t="n">
-        <x:v>76.1</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="KR40" s="3" t="n">
         <x:v>75.1</x:v>
       </x:c>
       <x:c r="KS40" s="3" t="n">
-        <x:v>76.4</x:v>
+        <x:v>76.1</x:v>
       </x:c>
       <x:c r="KT40" s="3" t="n">
-        <x:v>76.1</x:v>
+        <x:v>76.5</x:v>
       </x:c>
       <x:c r="KU40" s="3" t="n">
-        <x:v>73.4</x:v>
+        <x:v>73.5</x:v>
       </x:c>
       <x:c r="KV40" s="3" t="n">
         <x:v>68.9</x:v>
@@ -38792,7 +39134,7 @@
         <x:v>75.9</x:v>
       </x:c>
       <x:c r="KY40" s="3" t="n">
-        <x:v>76.4</x:v>
+        <x:v>76.5</x:v>
       </x:c>
       <x:c r="KZ40" s="3" t="n">
         <x:v>76</x:v>
@@ -38801,19 +39143,19 @@
         <x:v>80.4</x:v>
       </x:c>
       <x:c r="LB40" s="3" t="n">
-        <x:v>81.2</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="LC40" s="3" t="n">
-        <x:v>79.9</x:v>
+        <x:v>79.7</x:v>
       </x:c>
       <x:c r="LD40" s="3" t="n">
-        <x:v>80.3</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="LE40" s="3" t="n">
-        <x:v>79.4</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="LF40" s="3" t="n">
-        <x:v>81.7</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="LG40" s="3" t="n">
         <x:v>77.3</x:v>
@@ -38828,24 +39170,33 @@
         <x:v>80.4</x:v>
       </x:c>
       <x:c r="LK40" s="3" t="n">
-        <x:v>79.6</x:v>
+        <x:v>79.8</x:v>
       </x:c>
       <x:c r="LL40" s="3" t="n">
-        <x:v>77.4</x:v>
+        <x:v>77.2</x:v>
       </x:c>
       <x:c r="LM40" s="3" t="n">
-        <x:v>84.6</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="LN40" s="3" t="n">
         <x:v>85.3</x:v>
       </x:c>
       <x:c r="LO40" s="3" t="n">
-        <x:v>85.9</x:v>
+        <x:v>85.7</x:v>
+      </x:c>
+      <x:c r="LP40" s="3" t="n">
+        <x:v>84.2</x:v>
+      </x:c>
+      <x:c r="LQ40" s="3" t="n">
+        <x:v>83.5</x:v>
+      </x:c>
+      <x:c r="LR40" s="3" t="n">
+        <x:v>82.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:327">
+    <x:row r="41" spans="1:330">
       <x:c r="B41" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C41" s="3" t="n">
         <x:v>93.5</x:v>
@@ -39724,7 +40075,7 @@
         <x:v>77.8</x:v>
       </x:c>
       <x:c r="KI41" s="3" t="n">
-        <x:v>86.4</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="KJ41" s="3" t="n">
         <x:v>82</x:v>
@@ -39733,10 +40084,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="KL41" s="3" t="n">
-        <x:v>78.7</x:v>
+        <x:v>78.6</x:v>
       </x:c>
       <x:c r="KM41" s="3" t="n">
-        <x:v>81.7</x:v>
+        <x:v>81.8</x:v>
       </x:c>
       <x:c r="KN41" s="3" t="n">
         <x:v>81.6</x:v>
@@ -39745,13 +40096,13 @@
         <x:v>74.9</x:v>
       </x:c>
       <x:c r="KP41" s="3" t="n">
-        <x:v>68.4</x:v>
+        <x:v>68.3</x:v>
       </x:c>
       <x:c r="KQ41" s="3" t="n">
-        <x:v>76.7</x:v>
+        <x:v>76.6</x:v>
       </x:c>
       <x:c r="KR41" s="3" t="n">
-        <x:v>71.9</x:v>
+        <x:v>72.1</x:v>
       </x:c>
       <x:c r="KS41" s="3" t="n">
         <x:v>79.2</x:v>
@@ -39760,7 +40111,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="KU41" s="3" t="n">
-        <x:v>79.6</x:v>
+        <x:v>79.5</x:v>
       </x:c>
       <x:c r="KV41" s="3" t="n">
         <x:v>70.7</x:v>
@@ -39775,19 +40126,19 @@
         <x:v>78.9</x:v>
       </x:c>
       <x:c r="KZ41" s="3" t="n">
-        <x:v>80.8</x:v>
+        <x:v>80.7</x:v>
       </x:c>
       <x:c r="LA41" s="3" t="n">
         <x:v>79.5</x:v>
       </x:c>
       <x:c r="LB41" s="3" t="n">
-        <x:v>74.6</x:v>
+        <x:v>74.4</x:v>
       </x:c>
       <x:c r="LC41" s="3" t="n">
-        <x:v>80.7</x:v>
+        <x:v>80.6</x:v>
       </x:c>
       <x:c r="LD41" s="3" t="n">
-        <x:v>76.8</x:v>
+        <x:v>76.7</x:v>
       </x:c>
       <x:c r="LE41" s="3" t="n">
         <x:v>82.4</x:v>
@@ -39796,10 +40147,10 @@
         <x:v>80.4</x:v>
       </x:c>
       <x:c r="LG41" s="3" t="n">
-        <x:v>83.7</x:v>
+        <x:v>83.5</x:v>
       </x:c>
       <x:c r="LH41" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="LI41" s="3" t="n">
         <x:v>70.7</x:v>
@@ -39817,15 +40168,24 @@
         <x:v>83.4</x:v>
       </x:c>
       <x:c r="LN41" s="3" t="n">
-        <x:v>78.2</x:v>
+        <x:v>78.1</x:v>
       </x:c>
       <x:c r="LO41" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>86.7</x:v>
+      </x:c>
+      <x:c r="LP41" s="3" t="n">
+        <x:v>80.8</x:v>
+      </x:c>
+      <x:c r="LQ41" s="3" t="n">
+        <x:v>87.2</x:v>
+      </x:c>
+      <x:c r="LR41" s="3" t="n">
+        <x:v>80.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:327">
+    <x:row r="42" spans="1:330">
       <x:c r="B42" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C42" s="3" t="n">
         <x:v>93.3</x:v>
@@ -40802,13 +41162,22 @@
       <x:c r="LO42" s="3" t="n">
         <x:v>86</x:v>
       </x:c>
+      <x:c r="LP42" s="3" t="n">
+        <x:v>79.8</x:v>
+      </x:c>
+      <x:c r="LQ42" s="3" t="n">
+        <x:v>90.1</x:v>
+      </x:c>
+      <x:c r="LR42" s="3" t="n">
+        <x:v>78.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="43" spans="1:327">
+    <x:row r="43" spans="1:330">
       <x:c r="A43" s="2" t="s">
-        <x:v>343</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C43" s="3" t="n">
         <x:v>69.8</x:v>
@@ -41675,16 +42044,16 @@
         <x:v>93.4</x:v>
       </x:c>
       <x:c r="KE43" s="3" t="n">
-        <x:v>94.4</x:v>
+        <x:v>94.3</x:v>
       </x:c>
       <x:c r="KF43" s="3" t="n">
-        <x:v>93.8</x:v>
+        <x:v>93.6</x:v>
       </x:c>
       <x:c r="KG43" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>90.5</x:v>
       </x:c>
       <x:c r="KH43" s="3" t="n">
-        <x:v>89</x:v>
+        <x:v>89.7</x:v>
       </x:c>
       <x:c r="KI43" s="3" t="n">
         <x:v>92.1</x:v>
@@ -41714,13 +42083,13 @@
         <x:v>90.3</x:v>
       </x:c>
       <x:c r="KR43" s="3" t="n">
-        <x:v>89.1</x:v>
+        <x:v>88.9</x:v>
       </x:c>
       <x:c r="KS43" s="3" t="n">
-        <x:v>90.8</x:v>
+        <x:v>90.1</x:v>
       </x:c>
       <x:c r="KT43" s="3" t="n">
-        <x:v>86.3</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="KU43" s="3" t="n">
         <x:v>78.6</x:v>
@@ -41750,19 +42119,19 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="LD43" s="3" t="n">
-        <x:v>95.9</x:v>
+        <x:v>95.7</x:v>
       </x:c>
       <x:c r="LE43" s="3" t="n">
-        <x:v>97.4</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="LF43" s="3" t="n">
-        <x:v>97</x:v>
+        <x:v>98.4</x:v>
       </x:c>
       <x:c r="LG43" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="LH43" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.4</x:v>
       </x:c>
       <x:c r="LI43" s="3" t="n">
         <x:v>95.4</x:v>
@@ -41783,12 +42152,21 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="LO43" s="3" t="n">
-        <x:v>98.8</x:v>
+        <x:v>98.9</x:v>
+      </x:c>
+      <x:c r="LP43" s="3" t="n">
+        <x:v>99.3</x:v>
+      </x:c>
+      <x:c r="LQ43" s="3" t="n">
+        <x:v>98.6</x:v>
+      </x:c>
+      <x:c r="LR43" s="3" t="n">
+        <x:v>95.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:327">
+    <x:row r="44" spans="1:330">
       <x:c r="B44" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C44" s="3" t="n">
         <x:v>71.9</x:v>
@@ -42765,10 +43143,19 @@
       <x:c r="LO44" s="3" t="n">
         <x:v>99.1</x:v>
       </x:c>
+      <x:c r="LP44" s="3" t="n">
+        <x:v>93.7</x:v>
+      </x:c>
+      <x:c r="LQ44" s="3" t="n">
+        <x:v>103.2</x:v>
+      </x:c>
+      <x:c r="LR44" s="3" t="n">
+        <x:v>93.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="45" spans="1:327">
+    <x:row r="45" spans="1:330">
       <x:c r="B45" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C45" s="3" t="n">
         <x:v>71.7</x:v>
@@ -43745,13 +44132,22 @@
       <x:c r="LO45" s="3" t="n">
         <x:v>99.1</x:v>
       </x:c>
+      <x:c r="LP45" s="3" t="n">
+        <x:v>92.9</x:v>
+      </x:c>
+      <x:c r="LQ45" s="3" t="n">
+        <x:v>103.2</x:v>
+      </x:c>
+      <x:c r="LR45" s="3" t="n">
+        <x:v>93.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="46" spans="1:327">
+    <x:row r="46" spans="1:330">
       <x:c r="A46" s="2" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C46" s="3" t="n">
         <x:v>91.9</x:v>
@@ -44618,120 +45014,129 @@
         <x:v>145.4</x:v>
       </x:c>
       <x:c r="KE46" s="3" t="n">
-        <x:v>146.6</x:v>
+        <x:v>146.8</x:v>
       </x:c>
       <x:c r="KF46" s="3" t="n">
-        <x:v>148.4</x:v>
+        <x:v>148.6</x:v>
       </x:c>
       <x:c r="KG46" s="3" t="n">
-        <x:v>146.8</x:v>
+        <x:v>148.1</x:v>
       </x:c>
       <x:c r="KH46" s="3" t="n">
-        <x:v>148.7</x:v>
+        <x:v>147.9</x:v>
       </x:c>
       <x:c r="KI46" s="3" t="n">
-        <x:v>150.4</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="KJ46" s="3" t="n">
-        <x:v>148.2</x:v>
+        <x:v>147.9</x:v>
       </x:c>
       <x:c r="KK46" s="3" t="n">
-        <x:v>150.1</x:v>
+        <x:v>149.8</x:v>
       </x:c>
       <x:c r="KL46" s="3" t="n">
-        <x:v>149</x:v>
+        <x:v>148.8</x:v>
       </x:c>
       <x:c r="KM46" s="3" t="n">
-        <x:v>148.7</x:v>
+        <x:v>148.5</x:v>
       </x:c>
       <x:c r="KN46" s="3" t="n">
-        <x:v>147.6</x:v>
+        <x:v>147.5</x:v>
       </x:c>
       <x:c r="KO46" s="3" t="n">
         <x:v>149</x:v>
       </x:c>
       <x:c r="KP46" s="3" t="n">
-        <x:v>150.9</x:v>
+        <x:v>151.2</x:v>
       </x:c>
       <x:c r="KQ46" s="3" t="n">
-        <x:v>148.1</x:v>
+        <x:v>148.5</x:v>
       </x:c>
       <x:c r="KR46" s="3" t="n">
-        <x:v>150</x:v>
+        <x:v>150.5</x:v>
       </x:c>
       <x:c r="KS46" s="3" t="n">
-        <x:v>138.5</x:v>
+        <x:v>140.1</x:v>
       </x:c>
       <x:c r="KT46" s="3" t="n">
-        <x:v>133.1</x:v>
+        <x:v>131.6</x:v>
       </x:c>
       <x:c r="KU46" s="3" t="n">
-        <x:v>134.3</x:v>
+        <x:v>133.8</x:v>
       </x:c>
       <x:c r="KV46" s="3" t="n">
-        <x:v>136.4</x:v>
+        <x:v>136.1</x:v>
       </x:c>
       <x:c r="KW46" s="3" t="n">
-        <x:v>117.8</x:v>
+        <x:v>117.6</x:v>
       </x:c>
       <x:c r="KX46" s="3" t="n">
-        <x:v>149.6</x:v>
+        <x:v>149.3</x:v>
       </x:c>
       <x:c r="KY46" s="3" t="n">
-        <x:v>133.8</x:v>
+        <x:v>133.6</x:v>
       </x:c>
       <x:c r="KZ46" s="3" t="n">
-        <x:v>138.8</x:v>
+        <x:v>138.7</x:v>
       </x:c>
       <x:c r="LA46" s="3" t="n">
-        <x:v>137.2</x:v>
+        <x:v>137.4</x:v>
       </x:c>
       <x:c r="LB46" s="3" t="n">
-        <x:v>131</x:v>
+        <x:v>131.3</x:v>
       </x:c>
       <x:c r="LC46" s="3" t="n">
-        <x:v>138.5</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="LD46" s="3" t="n">
+        <x:v>138.3</x:v>
+      </x:c>
+      <x:c r="LE46" s="3" t="n">
         <x:v>137.6</x:v>
       </x:c>
-      <x:c r="LE46" s="3" t="n">
-        <x:v>135.5</x:v>
-      </x:c>
       <x:c r="LF46" s="3" t="n">
-        <x:v>132.1</x:v>
+        <x:v>129.9</x:v>
       </x:c>
       <x:c r="LG46" s="3" t="n">
-        <x:v>139.3</x:v>
+        <x:v>138.6</x:v>
       </x:c>
       <x:c r="LH46" s="3" t="n">
-        <x:v>141.3</x:v>
+        <x:v>140.8</x:v>
       </x:c>
       <x:c r="LI46" s="3" t="n">
-        <x:v>142.4</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="LJ46" s="3" t="n">
-        <x:v>136.9</x:v>
+        <x:v>136.6</x:v>
       </x:c>
       <x:c r="LK46" s="3" t="n">
-        <x:v>139.2</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="LL46" s="3" t="n">
         <x:v>142.6</x:v>
       </x:c>
       <x:c r="LM46" s="3" t="n">
-        <x:v>139.4</x:v>
+        <x:v>139.6</x:v>
       </x:c>
       <x:c r="LN46" s="3" t="n">
-        <x:v>136.8</x:v>
+        <x:v>137.2</x:v>
       </x:c>
       <x:c r="LO46" s="3" t="n">
-        <x:v>147</x:v>
+        <x:v>147.7</x:v>
+      </x:c>
+      <x:c r="LP46" s="3" t="n">
+        <x:v>142.6</x:v>
+      </x:c>
+      <x:c r="LQ46" s="3" t="n">
+        <x:v>143.8</x:v>
+      </x:c>
+      <x:c r="LR46" s="3" t="n">
+        <x:v>148.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:327">
+    <x:row r="47" spans="1:330">
       <x:c r="B47" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C47" s="3" t="n">
         <x:v>97.2</x:v>
@@ -45610,7 +46015,7 @@
         <x:v>142.9</x:v>
       </x:c>
       <x:c r="KI47" s="3" t="n">
-        <x:v>154.8</x:v>
+        <x:v>154.7</x:v>
       </x:c>
       <x:c r="KJ47" s="3" t="n">
         <x:v>154.7</x:v>
@@ -45625,7 +46030,7 @@
         <x:v>162.8</x:v>
       </x:c>
       <x:c r="KN47" s="3" t="n">
-        <x:v>162.1</x:v>
+        <x:v>162.2</x:v>
       </x:c>
       <x:c r="KO47" s="3" t="n">
         <x:v>164.3</x:v>
@@ -45640,13 +46045,13 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="KS47" s="3" t="n">
-        <x:v>146.1</x:v>
+        <x:v>146.2</x:v>
       </x:c>
       <x:c r="KT47" s="3" t="n">
         <x:v>128</x:v>
       </x:c>
       <x:c r="KU47" s="3" t="n">
-        <x:v>138</x:v>
+        <x:v>137.9</x:v>
       </x:c>
       <x:c r="KV47" s="3" t="n">
         <x:v>142.3</x:v>
@@ -45676,10 +46081,10 @@
         <x:v>141.4</x:v>
       </x:c>
       <x:c r="LE47" s="3" t="n">
-        <x:v>143</x:v>
+        <x:v>142.9</x:v>
       </x:c>
       <x:c r="LF47" s="3" t="n">
-        <x:v>126.9</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="LG47" s="3" t="n">
         <x:v>142.8</x:v>
@@ -45697,10 +46102,10 @@
         <x:v>152.2</x:v>
       </x:c>
       <x:c r="LL47" s="3" t="n">
-        <x:v>156.8</x:v>
+        <x:v>156.7</x:v>
       </x:c>
       <x:c r="LM47" s="3" t="n">
-        <x:v>153.7</x:v>
+        <x:v>153.8</x:v>
       </x:c>
       <x:c r="LN47" s="3" t="n">
         <x:v>135.8</x:v>
@@ -45708,10 +46113,19 @@
       <x:c r="LO47" s="3" t="n">
         <x:v>153.2</x:v>
       </x:c>
+      <x:c r="LP47" s="3" t="n">
+        <x:v>145.5</x:v>
+      </x:c>
+      <x:c r="LQ47" s="3" t="n">
+        <x:v>148.9</x:v>
+      </x:c>
+      <x:c r="LR47" s="3" t="n">
+        <x:v>146.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="48" spans="1:327">
+    <x:row r="48" spans="1:330">
       <x:c r="B48" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C48" s="3" t="n">
         <x:v>96.2</x:v>
@@ -46688,13 +47102,22 @@
       <x:c r="LO48" s="3" t="n">
         <x:v>147.3</x:v>
       </x:c>
+      <x:c r="LP48" s="3" t="n">
+        <x:v>144.6</x:v>
+      </x:c>
+      <x:c r="LQ48" s="3" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="LR48" s="3" t="n">
+        <x:v>135.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="49" spans="1:327">
+    <x:row r="49" spans="1:330">
       <x:c r="A49" s="2" t="s">
-        <x:v>345</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C49" s="3" t="n">
         <x:v>89.4</x:v>
@@ -47567,114 +47990,123 @@
         <x:v>124.7</x:v>
       </x:c>
       <x:c r="KG49" s="3" t="n">
-        <x:v>121.2</x:v>
+        <x:v>123.6</x:v>
       </x:c>
       <x:c r="KH49" s="3" t="n">
-        <x:v>133.2</x:v>
+        <x:v>131.5</x:v>
       </x:c>
       <x:c r="KI49" s="3" t="n">
-        <x:v>128.8</x:v>
+        <x:v>128.6</x:v>
       </x:c>
       <x:c r="KJ49" s="3" t="n">
-        <x:v>128.6</x:v>
+        <x:v>128.4</x:v>
       </x:c>
       <x:c r="KK49" s="3" t="n">
-        <x:v>126.1</x:v>
+        <x:v>125.9</x:v>
       </x:c>
       <x:c r="KL49" s="3" t="n">
-        <x:v>126.8</x:v>
+        <x:v>126.7</x:v>
       </x:c>
       <x:c r="KM49" s="3" t="n">
-        <x:v>128.5</x:v>
+        <x:v>128.3</x:v>
       </x:c>
       <x:c r="KN49" s="3" t="n">
-        <x:v>129.2</x:v>
+        <x:v>129.1</x:v>
       </x:c>
       <x:c r="KO49" s="3" t="n">
-        <x:v>129.1</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="KP49" s="3" t="n">
-        <x:v>130.6</x:v>
+        <x:v>130.5</x:v>
       </x:c>
       <x:c r="KQ49" s="3" t="n">
-        <x:v>131.1</x:v>
+        <x:v>131.2</x:v>
       </x:c>
       <x:c r="KR49" s="3" t="n">
-        <x:v>130.3</x:v>
+        <x:v>130.5</x:v>
       </x:c>
       <x:c r="KS49" s="3" t="n">
-        <x:v>125.3</x:v>
+        <x:v>128.9</x:v>
       </x:c>
       <x:c r="KT49" s="3" t="n">
-        <x:v>134</x:v>
+        <x:v>131.5</x:v>
       </x:c>
       <x:c r="KU49" s="3" t="n">
-        <x:v>126.1</x:v>
+        <x:v>125.8</x:v>
       </x:c>
       <x:c r="KV49" s="3" t="n">
-        <x:v>126.4</x:v>
+        <x:v>126.2</x:v>
       </x:c>
       <x:c r="KW49" s="3" t="n">
-        <x:v>115</x:v>
+        <x:v>114.8</x:v>
       </x:c>
       <x:c r="KX49" s="3" t="n">
-        <x:v>124.8</x:v>
+        <x:v>124.6</x:v>
       </x:c>
       <x:c r="KY49" s="3" t="n">
-        <x:v>126</x:v>
+        <x:v>125.8</x:v>
       </x:c>
       <x:c r="KZ49" s="3" t="n">
-        <x:v>136.8</x:v>
+        <x:v>136.5</x:v>
       </x:c>
       <x:c r="LA49" s="3" t="n">
-        <x:v>132</x:v>
+        <x:v>132.1</x:v>
       </x:c>
       <x:c r="LB49" s="3" t="n">
-        <x:v>135.6</x:v>
+        <x:v>135.7</x:v>
       </x:c>
       <x:c r="LC49" s="3" t="n">
-        <x:v>135.1</x:v>
+        <x:v>135.2</x:v>
       </x:c>
       <x:c r="LD49" s="3" t="n">
-        <x:v>132</x:v>
+        <x:v>132.3</x:v>
       </x:c>
       <x:c r="LE49" s="3" t="n">
+        <x:v>133.4</x:v>
+      </x:c>
+      <x:c r="LF49" s="3" t="n">
+        <x:v>119.9</x:v>
+      </x:c>
+      <x:c r="LG49" s="3" t="n">
+        <x:v>125.5</x:v>
+      </x:c>
+      <x:c r="LH49" s="3" t="n">
+        <x:v>130.7</x:v>
+      </x:c>
+      <x:c r="LI49" s="3" t="n">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="LF49" s="3" t="n">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="LG49" s="3" t="n">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="LH49" s="3" t="n">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="LI49" s="3" t="n">
-        <x:v>129.2</x:v>
-      </x:c>
       <x:c r="LJ49" s="3" t="n">
-        <x:v>128.4</x:v>
+        <x:v>128.2</x:v>
       </x:c>
       <x:c r="LK49" s="3" t="n">
-        <x:v>123.4</x:v>
+        <x:v>123.3</x:v>
       </x:c>
       <x:c r="LL49" s="3" t="n">
-        <x:v>130.8</x:v>
+        <x:v>130.5</x:v>
       </x:c>
       <x:c r="LM49" s="3" t="n">
         <x:v>127.9</x:v>
       </x:c>
       <x:c r="LN49" s="3" t="n">
-        <x:v>131.3</x:v>
+        <x:v>131.4</x:v>
       </x:c>
       <x:c r="LO49" s="3" t="n">
-        <x:v>133.6</x:v>
+        <x:v>133.8</x:v>
+      </x:c>
+      <x:c r="LP49" s="3" t="n">
+        <x:v>127.5</x:v>
+      </x:c>
+      <x:c r="LQ49" s="3" t="n">
+        <x:v>133.3</x:v>
+      </x:c>
+      <x:c r="LR49" s="3" t="n">
+        <x:v>139.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:327">
+    <x:row r="50" spans="1:330">
       <x:c r="B50" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C50" s="3" t="n">
         <x:v>94.7</x:v>
@@ -48541,22 +48973,22 @@
         <x:v>116.1</x:v>
       </x:c>
       <x:c r="KE50" s="3" t="n">
-        <x:v>133.9</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="KF50" s="3" t="n">
         <x:v>124.9</x:v>
       </x:c>
       <x:c r="KG50" s="3" t="n">
-        <x:v>125.6</x:v>
+        <x:v>125.5</x:v>
       </x:c>
       <x:c r="KH50" s="3" t="n">
         <x:v>125.2</x:v>
       </x:c>
       <x:c r="KI50" s="3" t="n">
-        <x:v>133</x:v>
+        <x:v>133.1</x:v>
       </x:c>
       <x:c r="KJ50" s="3" t="n">
-        <x:v>137.3</x:v>
+        <x:v>137.2</x:v>
       </x:c>
       <x:c r="KK50" s="3" t="n">
         <x:v>74</x:v>
@@ -48568,22 +49000,22 @@
         <x:v>140.5</x:v>
       </x:c>
       <x:c r="KN50" s="3" t="n">
-        <x:v>141.3</x:v>
+        <x:v>141.4</x:v>
       </x:c>
       <x:c r="KO50" s="3" t="n">
-        <x:v>138.9</x:v>
+        <x:v>138.8</x:v>
       </x:c>
       <x:c r="KP50" s="3" t="n">
         <x:v>123.8</x:v>
       </x:c>
       <x:c r="KQ50" s="3" t="n">
-        <x:v>141.3</x:v>
+        <x:v>141.4</x:v>
       </x:c>
       <x:c r="KR50" s="3" t="n">
         <x:v>130.5</x:v>
       </x:c>
       <x:c r="KS50" s="3" t="n">
-        <x:v>129.2</x:v>
+        <x:v>129.3</x:v>
       </x:c>
       <x:c r="KT50" s="3" t="n">
         <x:v>127.3</x:v>
@@ -48607,10 +49039,10 @@
         <x:v>149.9</x:v>
       </x:c>
       <x:c r="LA50" s="3" t="n">
-        <x:v>141.8</x:v>
+        <x:v>141.9</x:v>
       </x:c>
       <x:c r="LB50" s="3" t="n">
-        <x:v>128.5</x:v>
+        <x:v>128.6</x:v>
       </x:c>
       <x:c r="LC50" s="3" t="n">
         <x:v>146.1</x:v>
@@ -48619,10 +49051,10 @@
         <x:v>132.1</x:v>
       </x:c>
       <x:c r="LE50" s="3" t="n">
-        <x:v>132.5</x:v>
+        <x:v>132.4</x:v>
       </x:c>
       <x:c r="LF50" s="3" t="n">
-        <x:v>117.5</x:v>
+        <x:v>117.6</x:v>
       </x:c>
       <x:c r="LG50" s="3" t="n">
         <x:v>130.4</x:v>
@@ -48631,30 +49063,39 @@
         <x:v>140.1</x:v>
       </x:c>
       <x:c r="LI50" s="3" t="n">
-        <x:v>76</x:v>
+        <x:v>75.9</x:v>
       </x:c>
       <x:c r="LJ50" s="3" t="n">
         <x:v>132.5</x:v>
       </x:c>
       <x:c r="LK50" s="3" t="n">
-        <x:v>134.9</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="LL50" s="3" t="n">
-        <x:v>143.2</x:v>
+        <x:v>143.1</x:v>
       </x:c>
       <x:c r="LM50" s="3" t="n">
-        <x:v>137.4</x:v>
+        <x:v>137.5</x:v>
       </x:c>
       <x:c r="LN50" s="3" t="n">
-        <x:v>124.6</x:v>
+        <x:v>124.7</x:v>
       </x:c>
       <x:c r="LO50" s="3" t="n">
-        <x:v>144.6</x:v>
+        <x:v>144.7</x:v>
+      </x:c>
+      <x:c r="LP50" s="3" t="n">
+        <x:v>127.4</x:v>
+      </x:c>
+      <x:c r="LQ50" s="3" t="n">
+        <x:v>131.6</x:v>
+      </x:c>
+      <x:c r="LR50" s="3" t="n">
+        <x:v>137.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:327">
+    <x:row r="51" spans="1:330">
       <x:c r="B51" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C51" s="3" t="n">
         <x:v>94</x:v>
@@ -49631,13 +50072,22 @@
       <x:c r="LO51" s="3" t="n">
         <x:v>135.9</x:v>
       </x:c>
+      <x:c r="LP51" s="3" t="n">
+        <x:v>126.6</x:v>
+      </x:c>
+      <x:c r="LQ51" s="3" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="LR51" s="3" t="n">
+        <x:v>126.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="52" spans="1:327">
+    <x:row r="52" spans="1:330">
       <x:c r="A52" s="2" t="s">
-        <x:v>346</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C52" s="3" t="n">
         <x:v>85.6</x:v>
@@ -50504,22 +50954,22 @@
         <x:v>164.3</x:v>
       </x:c>
       <x:c r="KE52" s="3" t="n">
-        <x:v>160.7</x:v>
+        <x:v>160.8</x:v>
       </x:c>
       <x:c r="KF52" s="3" t="n">
+        <x:v>161.1</x:v>
+      </x:c>
+      <x:c r="KG52" s="3" t="n">
+        <x:v>161.7</x:v>
+      </x:c>
+      <x:c r="KH52" s="3" t="n">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="KG52" s="3" t="n">
-        <x:v>161.1</x:v>
-      </x:c>
-      <x:c r="KH52" s="3" t="n">
-        <x:v>161.6</x:v>
-      </x:c>
       <x:c r="KI52" s="3" t="n">
-        <x:v>163.9</x:v>
+        <x:v>163.7</x:v>
       </x:c>
       <x:c r="KJ52" s="3" t="n">
-        <x:v>164.5</x:v>
+        <x:v>164.4</x:v>
       </x:c>
       <x:c r="KK52" s="3" t="n">
         <x:v>158.6</x:v>
@@ -50528,7 +50978,7 @@
         <x:v>159.4</x:v>
       </x:c>
       <x:c r="KM52" s="3" t="n">
-        <x:v>162.3</x:v>
+        <x:v>162.2</x:v>
       </x:c>
       <x:c r="KN52" s="3" t="n">
         <x:v>161</x:v>
@@ -50537,22 +50987,22 @@
         <x:v>161.7</x:v>
       </x:c>
       <x:c r="KP52" s="3" t="n">
-        <x:v>155.7</x:v>
+        <x:v>155.8</x:v>
       </x:c>
       <x:c r="KQ52" s="3" t="n">
-        <x:v>159.7</x:v>
+        <x:v>159.8</x:v>
       </x:c>
       <x:c r="KR52" s="3" t="n">
         <x:v>161.1</x:v>
       </x:c>
       <x:c r="KS52" s="3" t="n">
-        <x:v>154.4</x:v>
+        <x:v>155.3</x:v>
       </x:c>
       <x:c r="KT52" s="3" t="n">
-        <x:v>149.2</x:v>
+        <x:v>148.4</x:v>
       </x:c>
       <x:c r="KU52" s="3" t="n">
-        <x:v>148.7</x:v>
+        <x:v>148.6</x:v>
       </x:c>
       <x:c r="KV52" s="3" t="n">
         <x:v>143.1</x:v>
@@ -50570,37 +51020,37 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="LA52" s="3" t="n">
-        <x:v>150</x:v>
+        <x:v>150.1</x:v>
       </x:c>
       <x:c r="LB52" s="3" t="n">
         <x:v>145.2</x:v>
       </x:c>
       <x:c r="LC52" s="3" t="n">
-        <x:v>156.4</x:v>
+        <x:v>156.5</x:v>
       </x:c>
       <x:c r="LD52" s="3" t="n">
-        <x:v>152.3</x:v>
+        <x:v>152.4</x:v>
       </x:c>
       <x:c r="LE52" s="3" t="n">
-        <x:v>153.1</x:v>
+        <x:v>154.1</x:v>
       </x:c>
       <x:c r="LF52" s="3" t="n">
-        <x:v>148.7</x:v>
+        <x:v>147.5</x:v>
       </x:c>
       <x:c r="LG52" s="3" t="n">
-        <x:v>153.1</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="LH52" s="3" t="n">
         <x:v>150.6</x:v>
       </x:c>
       <x:c r="LI52" s="3" t="n">
-        <x:v>142.3</x:v>
+        <x:v>142.4</x:v>
       </x:c>
       <x:c r="LJ52" s="3" t="n">
         <x:v>143.6</x:v>
       </x:c>
       <x:c r="LK52" s="3" t="n">
-        <x:v>146.3</x:v>
+        <x:v>146.4</x:v>
       </x:c>
       <x:c r="LL52" s="3" t="n">
         <x:v>150.5</x:v>
@@ -50609,15 +51059,24 @@
         <x:v>149.5</x:v>
       </x:c>
       <x:c r="LN52" s="3" t="n">
-        <x:v>144.8</x:v>
+        <x:v>144.9</x:v>
       </x:c>
       <x:c r="LO52" s="3" t="n">
-        <x:v>155.2</x:v>
+        <x:v>155.3</x:v>
+      </x:c>
+      <x:c r="LP52" s="3" t="n">
+        <x:v>150.6</x:v>
+      </x:c>
+      <x:c r="LQ52" s="3" t="n">
+        <x:v>151.6</x:v>
+      </x:c>
+      <x:c r="LR52" s="3" t="n">
+        <x:v>153.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:327">
+    <x:row r="53" spans="1:330">
       <x:c r="B53" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C53" s="3" t="n">
         <x:v>91</x:v>
@@ -51523,7 +51982,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="KR53" s="3" t="n">
-        <x:v>164.6</x:v>
+        <x:v>164.5</x:v>
       </x:c>
       <x:c r="KS53" s="3" t="n">
         <x:v>162.9</x:v>
@@ -51556,7 +52015,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="LC53" s="3" t="n">
-        <x:v>167.3</x:v>
+        <x:v>167.2</x:v>
       </x:c>
       <x:c r="LD53" s="3" t="n">
         <x:v>155.7</x:v>
@@ -51568,10 +52027,10 @@
         <x:v>142.1</x:v>
       </x:c>
       <x:c r="LG53" s="3" t="n">
-        <x:v>156.1</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="LH53" s="3" t="n">
-        <x:v>159.9</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="LI53" s="3" t="n">
         <x:v>81.1</x:v>
@@ -51583,7 +52042,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="LL53" s="3" t="n">
-        <x:v>165.5</x:v>
+        <x:v>165.4</x:v>
       </x:c>
       <x:c r="LM53" s="3" t="n">
         <x:v>163.6</x:v>
@@ -51594,10 +52053,19 @@
       <x:c r="LO53" s="3" t="n">
         <x:v>166</x:v>
       </x:c>
+      <x:c r="LP53" s="3" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="LQ53" s="3" t="n">
+        <x:v>159.2</x:v>
+      </x:c>
+      <x:c r="LR53" s="3" t="n">
+        <x:v>148.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="54" spans="1:327">
+    <x:row r="54" spans="1:330">
       <x:c r="B54" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C54" s="3" t="n">
         <x:v>90</x:v>
@@ -52574,13 +53042,22 @@
       <x:c r="LO54" s="3" t="n">
         <x:v>158.9</x:v>
       </x:c>
+      <x:c r="LP54" s="3" t="n">
+        <x:v>152.7</x:v>
+      </x:c>
+      <x:c r="LQ54" s="3" t="n">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="LR54" s="3" t="n">
+        <x:v>137.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="55" spans="1:327">
+    <x:row r="55" spans="1:330">
       <x:c r="A55" s="2" t="s">
-        <x:v>347</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C55" s="3" t="n">
         <x:v>104.9</x:v>
@@ -53447,16 +53924,16 @@
         <x:v>215.7</x:v>
       </x:c>
       <x:c r="KE55" s="3" t="n">
-        <x:v>223.8</x:v>
+        <x:v>223.9</x:v>
       </x:c>
       <x:c r="KF55" s="3" t="n">
-        <x:v>228.7</x:v>
+        <x:v>228.8</x:v>
       </x:c>
       <x:c r="KG55" s="3" t="n">
-        <x:v>234.9</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="KH55" s="3" t="n">
-        <x:v>243.5</x:v>
+        <x:v>243.3</x:v>
       </x:c>
       <x:c r="KI55" s="3" t="n">
         <x:v>250.2</x:v>
@@ -53465,13 +53942,13 @@
         <x:v>251.1</x:v>
       </x:c>
       <x:c r="KK55" s="3" t="n">
-        <x:v>266.7</x:v>
+        <x:v>266.6</x:v>
       </x:c>
       <x:c r="KL55" s="3" t="n">
         <x:v>254.6</x:v>
       </x:c>
       <x:c r="KM55" s="3" t="n">
-        <x:v>253.2</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="KN55" s="3" t="n">
         <x:v>262.4</x:v>
@@ -53483,84 +53960,93 @@
         <x:v>278.8</x:v>
       </x:c>
       <x:c r="KQ55" s="3" t="n">
-        <x:v>288.4</x:v>
+        <x:v>288.7</x:v>
       </x:c>
       <x:c r="KR55" s="3" t="n">
-        <x:v>272</x:v>
+        <x:v>272.3</x:v>
       </x:c>
       <x:c r="KS55" s="3" t="n">
-        <x:v>214.2</x:v>
+        <x:v>214.4</x:v>
       </x:c>
       <x:c r="KT55" s="3" t="n">
-        <x:v>183.3</x:v>
+        <x:v>183.2</x:v>
       </x:c>
       <x:c r="KU55" s="3" t="n">
         <x:v>192</x:v>
       </x:c>
       <x:c r="KV55" s="3" t="n">
-        <x:v>197.8</x:v>
+        <x:v>197.7</x:v>
       </x:c>
       <x:c r="KW55" s="3" t="n">
-        <x:v>209.5</x:v>
+        <x:v>209.4</x:v>
       </x:c>
       <x:c r="KX55" s="3" t="n">
-        <x:v>224.3</x:v>
+        <x:v>224.2</x:v>
       </x:c>
       <x:c r="KY55" s="3" t="n">
-        <x:v>230.2</x:v>
+        <x:v>229.9</x:v>
       </x:c>
       <x:c r="KZ55" s="3" t="n">
-        <x:v>243.5</x:v>
+        <x:v>243.4</x:v>
       </x:c>
       <x:c r="LA55" s="3" t="n">
-        <x:v>245</x:v>
+        <x:v>244.9</x:v>
       </x:c>
       <x:c r="LB55" s="3" t="n">
-        <x:v>252.8</x:v>
+        <x:v>252.9</x:v>
       </x:c>
       <x:c r="LC55" s="3" t="n">
-        <x:v>247.6</x:v>
+        <x:v>247.9</x:v>
       </x:c>
       <x:c r="LD55" s="3" t="n">
-        <x:v>252.2</x:v>
+        <x:v>252.4</x:v>
       </x:c>
       <x:c r="LE55" s="3" t="n">
-        <x:v>233.7</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="LF55" s="3" t="n">
-        <x:v>222.6</x:v>
+        <x:v>222.5</x:v>
       </x:c>
       <x:c r="LG55" s="3" t="n">
         <x:v>221.4</x:v>
       </x:c>
       <x:c r="LH55" s="3" t="n">
-        <x:v>235.6</x:v>
+        <x:v>235.5</x:v>
       </x:c>
       <x:c r="LI55" s="3" t="n">
-        <x:v>241.9</x:v>
+        <x:v>241.7</x:v>
       </x:c>
       <x:c r="LJ55" s="3" t="n">
-        <x:v>218.2</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="LK55" s="3" t="n">
-        <x:v>223.8</x:v>
+        <x:v>223.5</x:v>
       </x:c>
       <x:c r="LL55" s="3" t="n">
-        <x:v>225.2</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="LM55" s="3" t="n">
-        <x:v>228.6</x:v>
+        <x:v>228.5</x:v>
       </x:c>
       <x:c r="LN55" s="3" t="n">
-        <x:v>220.9</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="LO55" s="3" t="n">
-        <x:v>225.5</x:v>
+        <x:v>225.9</x:v>
+      </x:c>
+      <x:c r="LP55" s="3" t="n">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="LQ55" s="3" t="n">
+        <x:v>234.1</x:v>
+      </x:c>
+      <x:c r="LR55" s="3" t="n">
+        <x:v>237</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:327">
+    <x:row r="56" spans="1:330">
       <x:c r="B56" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C56" s="3" t="n">
         <x:v>117.6</x:v>
@@ -54537,10 +55023,19 @@
       <x:c r="LO56" s="3" t="n">
         <x:v>237.3</x:v>
       </x:c>
+      <x:c r="LP56" s="3" t="n">
+        <x:v>230.1</x:v>
+      </x:c>
+      <x:c r="LQ56" s="3" t="n">
+        <x:v>250.2</x:v>
+      </x:c>
+      <x:c r="LR56" s="3" t="n">
+        <x:v>225.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="57" spans="1:327">
+    <x:row r="57" spans="1:330">
       <x:c r="B57" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C57" s="3" t="n">
         <x:v>116.4</x:v>
@@ -55517,13 +56012,22 @@
       <x:c r="LO57" s="3" t="n">
         <x:v>229.1</x:v>
       </x:c>
+      <x:c r="LP57" s="3" t="n">
+        <x:v>228.6</x:v>
+      </x:c>
+      <x:c r="LQ57" s="3" t="n">
+        <x:v>268.9</x:v>
+      </x:c>
+      <x:c r="LR57" s="3" t="n">
+        <x:v>212.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="58" spans="1:327">
+    <x:row r="58" spans="1:330">
       <x:c r="A58" s="2" t="s">
-        <x:v>348</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C58" s="3" t="n">
         <x:v>104.1</x:v>
@@ -56396,10 +56900,10 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="KG58" s="3" t="n">
-        <x:v>131.1</x:v>
+        <x:v>131.2</x:v>
       </x:c>
       <x:c r="KH58" s="3" t="n">
-        <x:v>133.3</x:v>
+        <x:v>133.2</x:v>
       </x:c>
       <x:c r="KI58" s="3" t="n">
         <x:v>133.3</x:v>
@@ -56432,10 +56936,10 @@
         <x:v>129.8</x:v>
       </x:c>
       <x:c r="KS58" s="3" t="n">
-        <x:v>124.3</x:v>
+        <x:v>124.4</x:v>
       </x:c>
       <x:c r="KT58" s="3" t="n">
-        <x:v>105.6</x:v>
+        <x:v>105.5</x:v>
       </x:c>
       <x:c r="KU58" s="3" t="n">
         <x:v>101</x:v>
@@ -56468,10 +56972,10 @@
         <x:v>112.5</x:v>
       </x:c>
       <x:c r="LE58" s="3" t="n">
-        <x:v>111</x:v>
+        <x:v>111.1</x:v>
       </x:c>
       <x:c r="LF58" s="3" t="n">
-        <x:v>112.2</x:v>
+        <x:v>112.1</x:v>
       </x:c>
       <x:c r="LG58" s="3" t="n">
         <x:v>115.6</x:v>
@@ -56500,10 +57004,19 @@
       <x:c r="LO58" s="3" t="n">
         <x:v>122.7</x:v>
       </x:c>
+      <x:c r="LP58" s="3" t="n">
+        <x:v>117.6</x:v>
+      </x:c>
+      <x:c r="LQ58" s="3" t="n">
+        <x:v>116.2</x:v>
+      </x:c>
+      <x:c r="LR58" s="3" t="n">
+        <x:v>116.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="59" spans="1:327">
+    <x:row r="59" spans="1:330">
       <x:c r="B59" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C59" s="3" t="n">
         <x:v>111.4</x:v>
@@ -57397,7 +57910,7 @@
         <x:v>144.3</x:v>
       </x:c>
       <x:c r="KN59" s="3" t="n">
-        <x:v>145.1</x:v>
+        <x:v>145.2</x:v>
       </x:c>
       <x:c r="KO59" s="3" t="n">
         <x:v>141.4</x:v>
@@ -57480,10 +57993,19 @@
       <x:c r="LO59" s="3" t="n">
         <x:v>131.9</x:v>
       </x:c>
+      <x:c r="LP59" s="3" t="n">
+        <x:v>121.2</x:v>
+      </x:c>
+      <x:c r="LQ59" s="3" t="n">
+        <x:v>120.8</x:v>
+      </x:c>
+      <x:c r="LR59" s="3" t="n">
+        <x:v>112.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="60" spans="1:327">
+    <x:row r="60" spans="1:330">
       <x:c r="B60" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C60" s="3" t="n">
         <x:v>110.5</x:v>
@@ -58460,13 +58982,22 @@
       <x:c r="LO60" s="3" t="n">
         <x:v>127.6</x:v>
       </x:c>
+      <x:c r="LP60" s="3" t="n">
+        <x:v>120.4</x:v>
+      </x:c>
+      <x:c r="LQ60" s="3" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="LR60" s="3" t="n">
+        <x:v>103.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="61" spans="1:327">
+    <x:row r="61" spans="1:330">
       <x:c r="A61" s="2" t="s">
-        <x:v>349</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C61" s="3" t="n">
         <x:v>94.2</x:v>
@@ -59333,120 +59864,129 @@
         <x:v>147.1</x:v>
       </x:c>
       <x:c r="KE61" s="3" t="n">
-        <x:v>150.9</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="KF61" s="3" t="n">
-        <x:v>150.7</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="KG61" s="3" t="n">
-        <x:v>148.6</x:v>
+        <x:v>150.1</x:v>
       </x:c>
       <x:c r="KH61" s="3" t="n">
-        <x:v>154.3</x:v>
+        <x:v>153.4</x:v>
       </x:c>
       <x:c r="KI61" s="3" t="n">
-        <x:v>157.4</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="KJ61" s="3" t="n">
-        <x:v>151.8</x:v>
+        <x:v>151.4</x:v>
       </x:c>
       <x:c r="KK61" s="3" t="n">
-        <x:v>153.9</x:v>
+        <x:v>153.6</x:v>
       </x:c>
       <x:c r="KL61" s="3" t="n">
-        <x:v>154.4</x:v>
+        <x:v>154.1</x:v>
       </x:c>
       <x:c r="KM61" s="3" t="n">
-        <x:v>155</x:v>
+        <x:v>154.8</x:v>
       </x:c>
       <x:c r="KN61" s="3" t="n">
-        <x:v>153.7</x:v>
+        <x:v>153.6</x:v>
       </x:c>
       <x:c r="KO61" s="3" t="n">
         <x:v>155.4</x:v>
       </x:c>
       <x:c r="KP61" s="3" t="n">
-        <x:v>155.5</x:v>
+        <x:v>155.6</x:v>
       </x:c>
       <x:c r="KQ61" s="3" t="n">
-        <x:v>153.8</x:v>
+        <x:v>154.1</x:v>
       </x:c>
       <x:c r="KR61" s="3" t="n">
-        <x:v>151.7</x:v>
+        <x:v>152.1</x:v>
       </x:c>
       <x:c r="KS61" s="3" t="n">
-        <x:v>140.1</x:v>
+        <x:v>141.9</x:v>
       </x:c>
       <x:c r="KT61" s="3" t="n">
-        <x:v>144.3</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="KU61" s="3" t="n">
-        <x:v>139.8</x:v>
+        <x:v>139.3</x:v>
       </x:c>
       <x:c r="KV61" s="3" t="n">
-        <x:v>135.4</x:v>
+        <x:v>134.9</x:v>
       </x:c>
       <x:c r="KW61" s="3" t="n">
-        <x:v>139.1</x:v>
+        <x:v>138.8</x:v>
       </x:c>
       <x:c r="KX61" s="3" t="n">
-        <x:v>138.6</x:v>
+        <x:v>138.4</x:v>
       </x:c>
       <x:c r="KY61" s="3" t="n">
-        <x:v>138.7</x:v>
+        <x:v>138.5</x:v>
       </x:c>
       <x:c r="KZ61" s="3" t="n">
-        <x:v>144.8</x:v>
+        <x:v>144.7</x:v>
       </x:c>
       <x:c r="LA61" s="3" t="n">
-        <x:v>145.9</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="LB61" s="3" t="n">
-        <x:v>138</x:v>
+        <x:v>138.2</x:v>
       </x:c>
       <x:c r="LC61" s="3" t="n">
-        <x:v>146</x:v>
+        <x:v>146.3</x:v>
       </x:c>
       <x:c r="LD61" s="3" t="n">
-        <x:v>148.5</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="LE61" s="3" t="n">
-        <x:v>150.8</x:v>
+        <x:v>152.8</x:v>
       </x:c>
       <x:c r="LF61" s="3" t="n">
-        <x:v>146</x:v>
+        <x:v>144.5</x:v>
       </x:c>
       <x:c r="LG61" s="3" t="n">
-        <x:v>145.2</x:v>
+        <x:v>144.5</x:v>
       </x:c>
       <x:c r="LH61" s="3" t="n">
-        <x:v>142.1</x:v>
+        <x:v>141.6</x:v>
       </x:c>
       <x:c r="LI61" s="3" t="n">
-        <x:v>142.3</x:v>
+        <x:v>141.9</x:v>
       </x:c>
       <x:c r="LJ61" s="3" t="n">
-        <x:v>141.3</x:v>
+        <x:v>141.1</x:v>
       </x:c>
       <x:c r="LK61" s="3" t="n">
-        <x:v>142.6</x:v>
+        <x:v>142.5</x:v>
       </x:c>
       <x:c r="LL61" s="3" t="n">
         <x:v>148.1</x:v>
       </x:c>
       <x:c r="LM61" s="3" t="n">
-        <x:v>144.3</x:v>
+        <x:v>144.5</x:v>
       </x:c>
       <x:c r="LN61" s="3" t="n">
-        <x:v>144.2</x:v>
+        <x:v>144.4</x:v>
       </x:c>
       <x:c r="LO61" s="3" t="n">
-        <x:v>146.7</x:v>
+        <x:v>147.2</x:v>
+      </x:c>
+      <x:c r="LP61" s="3" t="n">
+        <x:v>149.4</x:v>
+      </x:c>
+      <x:c r="LQ61" s="3" t="n">
+        <x:v>146.3</x:v>
+      </x:c>
+      <x:c r="LR61" s="3" t="n">
+        <x:v>152.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:327">
+    <x:row r="62" spans="1:330">
       <x:c r="B62" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C62" s="3" t="n">
         <x:v>100.9</x:v>
@@ -60322,16 +60862,16 @@
         <x:v>156.7</x:v>
       </x:c>
       <x:c r="KH62" s="3" t="n">
-        <x:v>149.2</x:v>
+        <x:v>149.1</x:v>
       </x:c>
       <x:c r="KI62" s="3" t="n">
-        <x:v>165.4</x:v>
+        <x:v>165.3</x:v>
       </x:c>
       <x:c r="KJ62" s="3" t="n">
-        <x:v>158.1</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="KK62" s="3" t="n">
-        <x:v>112.6</x:v>
+        <x:v>112.7</x:v>
       </x:c>
       <x:c r="KL62" s="3" t="n">
         <x:v>149.6</x:v>
@@ -60340,7 +60880,7 @@
         <x:v>164.9</x:v>
       </x:c>
       <x:c r="KN62" s="3" t="n">
-        <x:v>166</x:v>
+        <x:v>166.1</x:v>
       </x:c>
       <x:c r="KO62" s="3" t="n">
         <x:v>165.6</x:v>
@@ -60358,16 +60898,16 @@
         <x:v>147.8</x:v>
       </x:c>
       <x:c r="KT62" s="3" t="n">
-        <x:v>139.4</x:v>
+        <x:v>139.3</x:v>
       </x:c>
       <x:c r="KU62" s="3" t="n">
-        <x:v>147.1</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="KV62" s="3" t="n">
         <x:v>140.6</x:v>
       </x:c>
       <x:c r="KW62" s="3" t="n">
-        <x:v>101.7</x:v>
+        <x:v>101.8</x:v>
       </x:c>
       <x:c r="KX62" s="3" t="n">
         <x:v>134.4</x:v>
@@ -60394,10 +60934,10 @@
         <x:v>159.2</x:v>
       </x:c>
       <x:c r="LF62" s="3" t="n">
-        <x:v>140.9</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="LG62" s="3" t="n">
-        <x:v>152.8</x:v>
+        <x:v>152.7</x:v>
       </x:c>
       <x:c r="LH62" s="3" t="n">
         <x:v>147.4</x:v>
@@ -60423,10 +60963,19 @@
       <x:c r="LO62" s="3" t="n">
         <x:v>154.5</x:v>
       </x:c>
+      <x:c r="LP62" s="3" t="n">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="LQ62" s="3" t="n">
+        <x:v>152.4</x:v>
+      </x:c>
+      <x:c r="LR62" s="3" t="n">
+        <x:v>148.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="63" spans="1:327">
+    <x:row r="63" spans="1:330">
       <x:c r="B63" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C63" s="3" t="n">
         <x:v>99.9</x:v>
@@ -61403,13 +61952,22 @@
       <x:c r="LO63" s="3" t="n">
         <x:v>148.9</x:v>
       </x:c>
+      <x:c r="LP63" s="3" t="n">
+        <x:v>144.8</x:v>
+      </x:c>
+      <x:c r="LQ63" s="3" t="n">
+        <x:v>164.8</x:v>
+      </x:c>
+      <x:c r="LR63" s="3" t="n">
+        <x:v>139.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="64" spans="1:327">
+    <x:row r="64" spans="1:330">
       <x:c r="A64" s="2" t="s">
-        <x:v>350</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C64" s="3" t="n">
         <x:v>101.2</x:v>
@@ -62282,16 +62840,16 @@
         <x:v>52.6</x:v>
       </x:c>
       <x:c r="KG64" s="3" t="n">
-        <x:v>52</x:v>
+        <x:v>51.8</x:v>
       </x:c>
       <x:c r="KH64" s="3" t="n">
-        <x:v>54.9</x:v>
+        <x:v>55.2</x:v>
       </x:c>
       <x:c r="KI64" s="3" t="n">
         <x:v>54.6</x:v>
       </x:c>
       <x:c r="KJ64" s="3" t="n">
-        <x:v>54.3</x:v>
+        <x:v>54.4</x:v>
       </x:c>
       <x:c r="KK64" s="3" t="n">
         <x:v>49.6</x:v>
@@ -62318,10 +62876,10 @@
         <x:v>55.7</x:v>
       </x:c>
       <x:c r="KS64" s="3" t="n">
-        <x:v>47.1</x:v>
+        <x:v>46.9</x:v>
       </x:c>
       <x:c r="KT64" s="3" t="n">
-        <x:v>33.6</x:v>
+        <x:v>33.8</x:v>
       </x:c>
       <x:c r="KU64" s="3" t="n">
         <x:v>43.5</x:v>
@@ -62336,13 +62894,13 @@
         <x:v>60.5</x:v>
       </x:c>
       <x:c r="KY64" s="3" t="n">
-        <x:v>63.7</x:v>
+        <x:v>63.6</x:v>
       </x:c>
       <x:c r="KZ64" s="3" t="n">
         <x:v>61.2</x:v>
       </x:c>
       <x:c r="LA64" s="3" t="n">
-        <x:v>57.6</x:v>
+        <x:v>57.7</x:v>
       </x:c>
       <x:c r="LB64" s="3" t="n">
         <x:v>63.5</x:v>
@@ -62351,19 +62909,19 @@
         <x:v>61.1</x:v>
       </x:c>
       <x:c r="LD64" s="3" t="n">
-        <x:v>60.5</x:v>
+        <x:v>60.4</x:v>
       </x:c>
       <x:c r="LE64" s="3" t="n">
-        <x:v>63.4</x:v>
+        <x:v>62.9</x:v>
       </x:c>
       <x:c r="LF64" s="3" t="n">
-        <x:v>61.8</x:v>
+        <x:v>62.3</x:v>
       </x:c>
       <x:c r="LG64" s="3" t="n">
-        <x:v>65.8</x:v>
+        <x:v>65.9</x:v>
       </x:c>
       <x:c r="LH64" s="3" t="n">
-        <x:v>66.8</x:v>
+        <x:v>66.9</x:v>
       </x:c>
       <x:c r="LI64" s="3" t="n">
         <x:v>63.9</x:v>
@@ -62372,7 +62930,7 @@
         <x:v>61.3</x:v>
       </x:c>
       <x:c r="LK64" s="3" t="n">
-        <x:v>61.5</x:v>
+        <x:v>61.4</x:v>
       </x:c>
       <x:c r="LL64" s="3" t="n">
         <x:v>64.5</x:v>
@@ -62386,10 +62944,19 @@
       <x:c r="LO64" s="3" t="n">
         <x:v>57.8</x:v>
       </x:c>
+      <x:c r="LP64" s="3" t="n">
+        <x:v>58.1</x:v>
+      </x:c>
+      <x:c r="LQ64" s="3" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="LR64" s="3" t="n">
+        <x:v>58.3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="65" spans="1:327">
+    <x:row r="65" spans="1:330">
       <x:c r="B65" s="2" t="s">
-        <x:v>328</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C65" s="3" t="n">
         <x:v>105.9</x:v>
@@ -63310,7 +63877,7 @@
         <x:v>53.3</x:v>
       </x:c>
       <x:c r="KW65" s="3" t="n">
-        <x:v>28.8</x:v>
+        <x:v>28.7</x:v>
       </x:c>
       <x:c r="KX65" s="3" t="n">
         <x:v>59.8</x:v>
@@ -63334,7 +63901,7 @@
         <x:v>65.4</x:v>
       </x:c>
       <x:c r="LE65" s="3" t="n">
-        <x:v>65.7</x:v>
+        <x:v>65.8</x:v>
       </x:c>
       <x:c r="LF65" s="3" t="n">
         <x:v>59.2</x:v>
@@ -63366,10 +63933,19 @@
       <x:c r="LO65" s="3" t="n">
         <x:v>65.8</x:v>
       </x:c>
+      <x:c r="LP65" s="3" t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="LQ65" s="3" t="n">
+        <x:v>61.7</x:v>
+      </x:c>
+      <x:c r="LR65" s="3" t="n">
+        <x:v>55.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="66" spans="1:327">
+    <x:row r="66" spans="1:330">
       <x:c r="B66" s="2" t="s">
-        <x:v>329</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C66" s="3" t="n">
         <x:v>104.9</x:v>
@@ -64346,287 +64922,296 @@
       <x:c r="LO66" s="3" t="n">
         <x:v>63.3</x:v>
       </x:c>
+      <x:c r="LP66" s="3" t="n">
+        <x:v>62.2</x:v>
+      </x:c>
+      <x:c r="LQ66" s="3" t="n">
+        <x:v>68.5</x:v>
+      </x:c>
+      <x:c r="LR66" s="3" t="n">
+        <x:v>50.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="68" spans="1:327">
+    <x:row r="68" spans="1:330">
       <x:c r="A68" s="5" t="s">
-        <x:v>351</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:327">
+    <x:row r="69" spans="1:330">
       <x:c r="A69" s="5" t="s">
-        <x:v>352</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:327">
+    <x:row r="70" spans="1:330">
       <x:c r="A70" s="5" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:327">
+    <x:row r="72" spans="1:330">
       <x:c r="A72" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:327">
+    <x:row r="73" spans="1:330">
       <x:c r="A73" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:327">
+    <x:row r="74" spans="1:330">
       <x:c r="A74" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:327">
+    <x:row r="75" spans="1:330">
       <x:c r="A75" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:327">
+    <x:row r="76" spans="1:330">
       <x:c r="A76" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:327">
+    <x:row r="77" spans="1:330">
       <x:c r="A77" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:330">
+      <x:c r="A78" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:330">
+      <x:c r="A80" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:330">
+      <x:c r="A81" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:330">
+      <x:c r="A83" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:330">
+      <x:c r="A84" s="0" t="s">
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:327">
-      <x:c r="A78" s="0" t="s">
-        <x:v>356</x:v>
+    <x:row r="85" spans="1:330">
+      <x:c r="A85" s="0" t="s">
+        <x:v>365</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:327">
-      <x:c r="A80" s="0" t="s">
-        <x:v>359</x:v>
+    <x:row r="86" spans="1:330">
+      <x:c r="A86" s="0" t="s">
+        <x:v>366</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:327">
-      <x:c r="A81" s="0" t="s">
+    <x:row r="87" spans="1:330">
+      <x:c r="A87" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:330">
+      <x:c r="A91" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:330">
+      <x:c r="A93" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:330">
+      <x:c r="A94" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:330">
+      <x:c r="A95" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:330">
+      <x:c r="A96" s="0" t="s">
         <x:v>360</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:327">
-      <x:c r="A83" s="0" t="s">
+    <x:row r="97" spans="1:330">
+      <x:c r="A97" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:330">
+      <x:c r="A98" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:327">
-      <x:c r="A84" s="0" t="s">
-        <x:v>355</x:v>
+    <x:row r="99" spans="1:330">
+      <x:c r="A99" s="0" t="s">
+        <x:v>370</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:327">
-      <x:c r="A85" s="0" t="s">
-        <x:v>362</x:v>
+    <x:row r="100" spans="1:330">
+      <x:c r="A100" s="0" t="s">
+        <x:v>371</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:327">
-      <x:c r="A86" s="0" t="s">
-        <x:v>363</x:v>
+    <x:row r="101" spans="1:330">
+      <x:c r="A101" s="0" t="s">
+        <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:327">
-      <x:c r="A87" s="0" t="s">
-        <x:v>364</x:v>
+    <x:row r="102" spans="1:330">
+      <x:c r="A102" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:327">
-      <x:c r="A91" s="0" t="s">
-        <x:v>365</x:v>
+    <x:row r="103" spans="1:330">
+      <x:c r="A103" s="0" t="s">
+        <x:v>360</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:327">
-      <x:c r="A93" s="0" t="s">
-        <x:v>366</x:v>
+    <x:row r="104" spans="1:330">
+      <x:c r="A104" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:327">
-      <x:c r="A94" s="0" t="s">
-        <x:v>355</x:v>
+    <x:row r="105" spans="1:330">
+      <x:c r="A105" s="0" t="s">
+        <x:v>361</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:327">
-      <x:c r="A95" s="0" t="s">
-        <x:v>367</x:v>
+    <x:row r="106" spans="1:330">
+      <x:c r="A106" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:327">
-      <x:c r="A96" s="0" t="s">
-        <x:v>357</x:v>
+    <x:row r="108" spans="1:330">
+      <x:c r="A108" s="0" t="s">
+        <x:v>373</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:327">
-      <x:c r="A97" s="0" t="s">
-        <x:v>367</x:v>
+    <x:row r="109" spans="1:330">
+      <x:c r="A109" s="0" t="s">
+        <x:v>330</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:327">
-      <x:c r="A98" s="0" t="s">
+    <x:row r="110" spans="1:330">
+      <x:c r="A110" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:330">
+      <x:c r="A111" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:330">
+      <x:c r="A112" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:330">
+      <x:c r="A113" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:330">
+      <x:c r="A114" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:330">
+      <x:c r="A116" s="0" t="s">
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:327">
-      <x:c r="A99" s="0" t="s">
-        <x:v>367</x:v>
+    <x:row r="117" spans="1:330">
+      <x:c r="A117" s="0" t="s">
+        <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:327">
-      <x:c r="A100" s="0" t="s">
-        <x:v>368</x:v>
+    <x:row r="118" spans="1:330">
+      <x:c r="A118" s="0" t="s">
+        <x:v>360</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:327">
-      <x:c r="A101" s="0" t="s">
-        <x:v>355</x:v>
+    <x:row r="119" spans="1:330">
+      <x:c r="A119" s="0" t="s">
+        <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:327">
-      <x:c r="A102" s="0" t="s">
-        <x:v>369</x:v>
+    <x:row r="120" spans="1:330">
+      <x:c r="A120" s="0" t="s">
+        <x:v>361</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:327">
-      <x:c r="A103" s="0" t="s">
-        <x:v>357</x:v>
+    <x:row r="121" spans="1:330">
+      <x:c r="A121" s="0" t="s">
+        <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:327">
-      <x:c r="A104" s="0" t="s">
-        <x:v>369</x:v>
+    <x:row r="124" spans="1:330">
+      <x:c r="A124" s="0" t="s">
+        <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:327">
-      <x:c r="A105" s="0" t="s">
+    <x:row r="125" spans="1:330">
+      <x:c r="A125" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:330">
+      <x:c r="A126" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:330">
+      <x:c r="A127" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:330">
+      <x:c r="A129" s="0" t="s">
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:327">
-      <x:c r="A106" s="0" t="s">
-        <x:v>369</x:v>
+    <x:row r="130" spans="1:330">
+      <x:c r="A130" s="0" t="s">
+        <x:v>377</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:327">
-      <x:c r="A108" s="0" t="s">
-        <x:v>370</x:v>
+    <x:row r="133" spans="1:330">
+      <x:c r="A133" s="0" t="s">
+        <x:v>378</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:327">
-      <x:c r="A109" s="0" t="s">
-        <x:v>327</x:v>
+    <x:row r="134" spans="1:330">
+      <x:c r="A134" s="0" t="s">
+        <x:v>379</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:327">
-      <x:c r="A110" s="0" t="s">
-        <x:v>371</x:v>
+    <x:row r="136" spans="1:330">
+      <x:c r="A136" s="0" t="s">
+        <x:v>380</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:327">
-      <x:c r="A111" s="0" t="s">
-        <x:v>328</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:327">
-      <x:c r="A112" s="0" t="s">
-        <x:v>371</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:327">
-      <x:c r="A113" s="0" t="s">
-        <x:v>329</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:327">
-      <x:c r="A114" s="0" t="s">
-        <x:v>371</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:327">
-      <x:c r="A116" s="0" t="s">
-        <x:v>355</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:327">
-      <x:c r="A117" s="0" t="s">
-        <x:v>372</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:327">
-      <x:c r="A118" s="0" t="s">
-        <x:v>357</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:327">
-      <x:c r="A119" s="0" t="s">
-        <x:v>372</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:327">
-      <x:c r="A120" s="0" t="s">
-        <x:v>358</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:327">
-      <x:c r="A121" s="0" t="s">
-        <x:v>372</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:327">
-      <x:c r="A124" s="0" t="s">
-        <x:v>355</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:327">
-      <x:c r="A125" s="0" t="s">
-        <x:v>373</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:327">
-      <x:c r="A126" s="0" t="s">
-        <x:v>357</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:327">
-      <x:c r="A127" s="0" t="s">
-        <x:v>373</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:327">
-      <x:c r="A129" s="0" t="s">
-        <x:v>355</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:327">
-      <x:c r="A130" s="0" t="s">
-        <x:v>374</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:327">
-      <x:c r="A133" s="0" t="s">
-        <x:v>375</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:327">
-      <x:c r="A134" s="0" t="s">
-        <x:v>376</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:327">
-      <x:c r="A136" s="0" t="s">
-        <x:v>377</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:327">
+    <x:row r="137" spans="1:330">
       <x:c r="A137" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A68:LO68"/>
-    <x:mergeCell ref="A69:LO69"/>
-    <x:mergeCell ref="A70:LO70"/>
+    <x:mergeCell ref="A68:LR68"/>
+    <x:mergeCell ref="A69:LR69"/>
+    <x:mergeCell ref="A70:LR70"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
